--- a/ExcelConfig/pbjson/excel/人类信息表.xlsx
+++ b/ExcelConfig/pbjson/excel/人类信息表.xlsx
@@ -1,108 +1,262 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="false"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent>
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\CatClub\ExcelConfig\pbjson\excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0257A79F-AEDC-4DC9-BAC3-F0D6A5EE6C80}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="15225" yWindow="7350" windowWidth="19050" windowHeight="11805" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="#人类信息配置" r:id="rId3" sheetId="1"/>
+    <sheet name="#人类信息配置" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author/>
     <author>PBJSON</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="1">
-      <text>
-        <t>humanId
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="等线"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>humanId
 int64</t>
-      </text>
-    </comment>
-    <comment ref="B1" authorId="1">
-      <text>
-        <t>name
+        </r>
+      </text>
+    </comment>
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="等线"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>name
 string</t>
-      </text>
-    </comment>
-    <comment ref="C1" authorId="1">
-      <text>
-        <t>title
+        </r>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="等线"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>title
 string</t>
-      </text>
-    </comment>
-    <comment ref="D1" authorId="1">
-      <text>
-        <t>image
+        </r>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="等线"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>image
 string</t>
-      </text>
-    </comment>
-    <comment ref="E1" authorId="1">
-      <text>
-        <t>sex
+        </r>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="等线"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>sex
 int32</t>
-      </text>
-    </comment>
-    <comment ref="F1" authorId="1">
-      <text>
-        <t>isImportant
+        </r>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="等线"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>isImportant
 int32</t>
-      </text>
-    </comment>
-    <comment ref="G1" authorId="1">
-      <text>
-        <t>canRaiseCat
+        </r>
+      </text>
+    </comment>
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="等线"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>canRaiseCat
 int32</t>
-      </text>
-    </comment>
-    <comment ref="H1" authorId="1">
-      <text>
-        <t>canWashHead
+        </r>
+      </text>
+    </comment>
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="等线"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>canWashHead
 int32</t>
-      </text>
-    </comment>
-    <comment ref="I1" authorId="1">
-      <text>
-        <t>defaultCatId
+        </r>
+      </text>
+    </comment>
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="等线"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>defaultCatId
 int64</t>
-      </text>
-    </comment>
-    <comment ref="J1" authorId="1">
-      <text>
-        <t>tags
+        </r>
+      </text>
+    </comment>
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="等线"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>tags
 int64</t>
-      </text>
-    </comment>
-    <comment ref="K1" authorId="1">
-      <text>
-        <t>tags
+        </r>
+      </text>
+    </comment>
+    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000B000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="等线"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>tags
 int64</t>
-      </text>
-    </comment>
-    <comment ref="L1" authorId="1">
-      <text>
-        <t>tags
+        </r>
+      </text>
+    </comment>
+    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000C000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="等线"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>tags
 int64</t>
-      </text>
-    </comment>
-    <comment ref="M1" authorId="1">
-      <text>
-        <t>visibility
+        </r>
+      </text>
+    </comment>
+    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{3F363207-5358-4285-8551-14FB5DAB4377}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="等线"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>tags
+int64</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000D000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="等线"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>visibility
 int32</t>
-      </text>
-    </comment>
-    <comment ref="N1" authorId="1">
+        </r>
+      </text>
+    </comment>
+    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000E000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="等线"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>PsyDefense
+int32</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P1" authorId="0">
       <text>
         <t>tendToRaiseCat
 int32</t>
       </text>
     </comment>
-    <comment ref="O1" authorId="1">
+    <comment ref="Q1" authorId="0">
       <text>
         <t>FavorValue
 int32</t>
@@ -113,7 +267,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>人物编号</t>
   </si>
@@ -152,6 +306,14 @@
   </si>
   <si>
     <t>初始能见度</t>
+  </si>
+  <si>
+    <t>初始心防</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标签@3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>初始养猫意向</t>
@@ -163,14 +325,21 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color indexed="8"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -179,7 +348,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="darkGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
@@ -192,12 +361,31 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -205,32 +393,325 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Q1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="true"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="P11" sqref="P11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" style="1" width="9.0" customWidth="true"/>
-    <col min="2" max="2" style="1" width="8.0" customWidth="false"/>
-    <col min="3" max="3" style="1" width="8.0" customWidth="false"/>
-    <col min="4" max="4" style="1" width="8.0" customWidth="false"/>
-    <col min="5" max="5" style="1" width="8.0" customWidth="false"/>
-    <col min="6" max="6" style="1" width="15.0" customWidth="true"/>
-    <col min="7" max="7" style="1" width="9.0" customWidth="true"/>
-    <col min="8" max="8" style="1" width="9.0" customWidth="true"/>
-    <col min="9" max="9" style="1" width="13.0" customWidth="true"/>
-    <col min="10" max="10" style="1" width="8.0" customWidth="false"/>
-    <col min="11" max="11" style="1" width="8.0" customWidth="false"/>
-    <col min="12" max="12" style="1" width="8.0" customWidth="false"/>
-    <col min="13" max="13" style="1" width="11.0" customWidth="true"/>
-    <col min="14" max="14" style="1" width="13.0" customWidth="true"/>
-    <col min="15" max="15" style="1" width="11.0" customWidth="true"/>
+    <col min="1" max="1" customWidth="true" style="1" width="9.0" collapsed="false"/>
+    <col min="2" max="5" style="1" width="8.0" collapsed="false"/>
+    <col min="6" max="6" customWidth="true" style="1" width="15.0" collapsed="false"/>
+    <col min="7" max="8" customWidth="true" style="1" width="9.0" collapsed="false"/>
+    <col min="9" max="9" customWidth="true" style="1" width="13.0" collapsed="false"/>
+    <col min="10" max="12" style="1" width="8.0" collapsed="false"/>
+    <col min="13" max="13" style="2" width="9.0" collapsed="false"/>
+    <col min="14" max="14" customWidth="true" style="1" width="11.0" collapsed="false"/>
+    <col min="15" max="15" customWidth="true" style="1" width="13.0" collapsed="false"/>
+    <col min="16" max="16" style="3" width="13.0" customWidth="true"/>
+    <col min="17" max="17" style="3" width="11.0" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -268,18 +749,25 @@
         <v>11</v>
       </c>
       <c r="M1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
-        <v>14</v>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId3"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/ExcelConfig/pbjson/excel/人类信息表.xlsx
+++ b/ExcelConfig/pbjson/excel/人类信息表.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\CatClub\ExcelConfig\pbjson\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0257A79F-AEDC-4DC9-BAC3-F0D6A5EE6C80}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49DAEFAF-2459-4879-9E24-B3CBA02766F3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15225" yWindow="7350" windowWidth="19050" windowHeight="11805" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6870" yWindow="5055" windowWidth="19290" windowHeight="13680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#人类信息配置" sheetId="1" r:id="rId1"/>
@@ -250,16 +250,34 @@
         </r>
       </text>
     </comment>
-    <comment ref="P1" authorId="0">
-      <text>
-        <t>tendToRaiseCat
+    <comment ref="P1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000010000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="等线"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>tendToRaiseCat
 int32</t>
-      </text>
-    </comment>
-    <comment ref="Q1" authorId="0">
-      <text>
-        <t>FavorValue
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000011000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="等线"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>FavorValue
 int32</t>
+        </r>
       </text>
     </comment>
   </commentList>
@@ -267,7 +285,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="46">
   <si>
     <t>人物编号</t>
   </si>
@@ -320,13 +338,117 @@
   </si>
   <si>
     <t>初始亲密度</t>
+  </si>
+  <si>
+    <t>10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>国王</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王后</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主教</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>叔叔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>女仆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乞丐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贵族</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>骑士</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>侍卫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>炼金术士</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>医生</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>厨师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1001</t>
+  </si>
+  <si>
+    <t>1002</t>
+  </si>
+  <si>
+    <t>1003</t>
+  </si>
+  <si>
+    <t>1004</t>
+  </si>
+  <si>
+    <t>1005</t>
+  </si>
+  <si>
+    <t>1006</t>
+  </si>
+  <si>
+    <t>1007</t>
+  </si>
+  <si>
+    <t>1008</t>
+  </si>
+  <si>
+    <t>1009</t>
+  </si>
+  <si>
+    <t>1010</t>
+  </si>
+  <si>
+    <t>1011</t>
+  </si>
+  <si>
+    <t>2000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -371,7 +493,7 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -387,10 +509,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -690,28 +808,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q1"/>
+  <dimension ref="A1:Q13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="P11" sqref="P11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="1" width="9.0" collapsed="false"/>
-    <col min="2" max="5" style="1" width="8.0" collapsed="false"/>
-    <col min="6" max="6" customWidth="true" style="1" width="15.0" collapsed="false"/>
-    <col min="7" max="8" customWidth="true" style="1" width="9.0" collapsed="false"/>
-    <col min="9" max="9" customWidth="true" style="1" width="13.0" collapsed="false"/>
-    <col min="10" max="12" style="1" width="8.0" collapsed="false"/>
-    <col min="13" max="13" style="2" width="9.0" collapsed="false"/>
-    <col min="14" max="14" customWidth="true" style="1" width="11.0" collapsed="false"/>
-    <col min="15" max="15" customWidth="true" style="1" width="13.0" collapsed="false"/>
-    <col min="16" max="16" style="3" width="13.0" customWidth="true"/>
-    <col min="17" max="17" style="3" width="11.0" customWidth="true"/>
+    <col min="1" max="1" width="9" style="1" customWidth="1"/>
+    <col min="2" max="5" width="8" style="1"/>
+    <col min="6" max="6" width="15" style="1" customWidth="1"/>
+    <col min="7" max="8" width="9" style="1" customWidth="1"/>
+    <col min="9" max="9" width="13" style="1" customWidth="1"/>
+    <col min="10" max="12" width="8" style="1"/>
+    <col min="13" max="13" width="9" style="2"/>
+    <col min="14" max="14" width="11" style="1" customWidth="1"/>
+    <col min="15" max="15" width="13" style="1" customWidth="1"/>
+    <col min="16" max="16" width="13" style="3" customWidth="1"/>
+    <col min="17" max="17" width="11" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -762,12 +880,575 @@
       </c>
       <c r="Q1" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q5" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="P6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="O7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="P7" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="P8" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="P10" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="N11" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="O11" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="P11" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q11" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="M13" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="N13" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="O13" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="P13" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q13" s="3" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/ExcelConfig/pbjson/excel/人类信息表.xlsx
+++ b/ExcelConfig/pbjson/excel/人类信息表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\CatClub\ExcelConfig\pbjson\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49DAEFAF-2459-4879-9E24-B3CBA02766F3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59AF1424-CFB5-45E1-970E-AD71F6A84961}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6870" yWindow="5055" windowWidth="19290" windowHeight="13680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5070" yWindow="3690" windowWidth="19290" windowHeight="17910" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#人类信息配置" sheetId="1" r:id="rId1"/>
@@ -285,7 +285,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="33">
   <si>
     <t>人物编号</t>
   </si>
@@ -340,10 +340,6 @@
     <t>初始亲密度</t>
   </si>
   <si>
-    <t>10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>国王</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -368,10 +364,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>贵族</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>骑士</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -388,60 +380,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>厨师</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1001</t>
-  </si>
-  <si>
-    <t>1002</t>
-  </si>
-  <si>
-    <t>1003</t>
-  </si>
-  <si>
-    <t>1004</t>
-  </si>
-  <si>
-    <t>1005</t>
-  </si>
-  <si>
-    <t>1006</t>
-  </si>
-  <si>
-    <t>1007</t>
-  </si>
-  <si>
-    <t>1008</t>
-  </si>
-  <si>
-    <t>1009</t>
-  </si>
-  <si>
-    <t>1010</t>
-  </si>
-  <si>
-    <t>1011</t>
-  </si>
-  <si>
-    <t>2000</t>
+    <t>XX国王</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XX王后</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白衣主教</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大厨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>幕僚</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -449,7 +408,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -464,21 +423,72 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79967650379955446"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF66FF99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -487,13 +497,28 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -811,7 +836,7 @@
   <dimension ref="A1:Q13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -883,567 +908,597 @@
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="O2" s="1" t="s">
+      <c r="A2" s="4">
+        <v>100</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>17</v>
       </c>
+      <c r="C2" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="5"/>
+      <c r="E2" s="6">
+        <v>1</v>
+      </c>
+      <c r="F2" s="7">
+        <v>1</v>
+      </c>
+      <c r="G2" s="7">
+        <v>1</v>
+      </c>
+      <c r="H2" s="7">
+        <v>1</v>
+      </c>
+      <c r="I2" s="7">
+        <v>1</v>
+      </c>
+      <c r="J2" s="6">
+        <v>0</v>
+      </c>
+      <c r="K2" s="8">
+        <v>0</v>
+      </c>
+      <c r="L2" s="8">
+        <v>0</v>
+      </c>
+      <c r="M2" s="6">
+        <v>1</v>
+      </c>
+      <c r="N2" s="6">
+        <v>20</v>
+      </c>
+      <c r="O2" s="6">
+        <v>0</v>
+      </c>
       <c r="P2" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="O3" s="3" t="s">
-        <v>17</v>
+      <c r="A3" s="4">
+        <v>101</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="5"/>
+      <c r="E3" s="6">
+        <v>0</v>
+      </c>
+      <c r="F3" s="7">
+        <v>1</v>
+      </c>
+      <c r="G3" s="7">
+        <v>1</v>
+      </c>
+      <c r="H3" s="7">
+        <v>1</v>
+      </c>
+      <c r="I3" s="7">
+        <v>-1</v>
+      </c>
+      <c r="J3" s="6">
+        <v>0</v>
+      </c>
+      <c r="K3" s="8">
+        <v>0</v>
+      </c>
+      <c r="L3" s="8">
+        <v>0</v>
+      </c>
+      <c r="M3" s="6">
+        <v>0</v>
+      </c>
+      <c r="N3" s="6">
+        <v>0</v>
+      </c>
+      <c r="O3" s="6">
+        <v>0</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="Q3" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B4" s="1" t="s">
+      <c r="A4" s="4">
+        <v>102</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="N4" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="O4" s="3" t="s">
-        <v>17</v>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="6">
+        <v>1</v>
+      </c>
+      <c r="F4" s="7">
+        <v>1</v>
+      </c>
+      <c r="G4" s="7">
+        <v>1</v>
+      </c>
+      <c r="H4" s="7">
+        <v>1</v>
+      </c>
+      <c r="I4" s="7">
+        <v>-1</v>
+      </c>
+      <c r="J4" s="6">
+        <v>0</v>
+      </c>
+      <c r="K4" s="8">
+        <v>0</v>
+      </c>
+      <c r="L4" s="8">
+        <v>0</v>
+      </c>
+      <c r="M4" s="6">
+        <v>0</v>
+      </c>
+      <c r="N4" s="6">
+        <v>0</v>
+      </c>
+      <c r="O4" s="6">
+        <v>0</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="Q4" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="M5" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="N5" s="3" t="s">
+      <c r="A5" s="4">
+        <v>103</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="O5" s="3" t="s">
-        <v>17</v>
+      <c r="D5" s="5"/>
+      <c r="E5" s="6">
+        <v>1</v>
+      </c>
+      <c r="F5" s="7">
+        <v>1</v>
+      </c>
+      <c r="G5" s="7">
+        <v>1</v>
+      </c>
+      <c r="H5" s="7">
+        <v>1</v>
+      </c>
+      <c r="I5" s="7">
+        <v>-1</v>
+      </c>
+      <c r="J5" s="6">
+        <v>0</v>
+      </c>
+      <c r="K5" s="8">
+        <v>0</v>
+      </c>
+      <c r="L5" s="8">
+        <v>0</v>
+      </c>
+      <c r="M5" s="6">
+        <v>0</v>
+      </c>
+      <c r="N5" s="6">
+        <v>0</v>
+      </c>
+      <c r="O5" s="6">
+        <v>0</v>
       </c>
       <c r="P5" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="Q5" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="L6" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="M6" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="N6" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="O6" s="3" t="s">
-        <v>17</v>
+      <c r="A6" s="4">
+        <v>104</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="6">
+        <v>0</v>
+      </c>
+      <c r="F6" s="7">
+        <v>0</v>
+      </c>
+      <c r="G6" s="7">
+        <v>1</v>
+      </c>
+      <c r="H6" s="7">
+        <v>1</v>
+      </c>
+      <c r="I6" s="7">
+        <v>-1</v>
+      </c>
+      <c r="J6" s="6">
+        <v>0</v>
+      </c>
+      <c r="K6" s="8">
+        <v>0</v>
+      </c>
+      <c r="L6" s="8">
+        <v>0</v>
+      </c>
+      <c r="M6" s="6">
+        <v>0</v>
+      </c>
+      <c r="N6" s="6">
+        <v>0</v>
+      </c>
+      <c r="O6" s="6">
+        <v>0</v>
       </c>
       <c r="P6" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="Q6" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="L7" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="M7" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="N7" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="O7" s="3" t="s">
-        <v>17</v>
+      <c r="A7" s="4">
+        <v>105</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="6">
+        <v>1</v>
+      </c>
+      <c r="F7" s="7">
+        <v>0</v>
+      </c>
+      <c r="G7" s="7">
+        <v>1</v>
+      </c>
+      <c r="H7" s="7">
+        <v>1</v>
+      </c>
+      <c r="I7" s="7">
+        <v>-1</v>
+      </c>
+      <c r="J7" s="6">
+        <v>0</v>
+      </c>
+      <c r="K7" s="8">
+        <v>0</v>
+      </c>
+      <c r="L7" s="8">
+        <v>0</v>
+      </c>
+      <c r="M7" s="6">
+        <v>0</v>
+      </c>
+      <c r="N7" s="6">
+        <v>0</v>
+      </c>
+      <c r="O7" s="6">
+        <v>0</v>
       </c>
       <c r="P7" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="Q7" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="L8" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="M8" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="N8" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="O8" s="3" t="s">
-        <v>17</v>
+      <c r="A8" s="4">
+        <v>106</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="6">
+        <v>1</v>
+      </c>
+      <c r="F8" s="7">
+        <v>0</v>
+      </c>
+      <c r="G8" s="7">
+        <v>1</v>
+      </c>
+      <c r="H8" s="7">
+        <v>1</v>
+      </c>
+      <c r="I8" s="7">
+        <v>-1</v>
+      </c>
+      <c r="J8" s="6">
+        <v>0</v>
+      </c>
+      <c r="K8" s="8">
+        <v>0</v>
+      </c>
+      <c r="L8" s="8">
+        <v>0</v>
+      </c>
+      <c r="M8" s="6">
+        <v>0</v>
+      </c>
+      <c r="N8" s="6">
+        <v>0</v>
+      </c>
+      <c r="O8" s="6">
+        <v>0</v>
       </c>
       <c r="P8" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="Q8" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="L9" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="M9" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="N9" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="O9" s="3" t="s">
-        <v>17</v>
+      <c r="A9" s="4">
+        <v>107</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="6">
+        <v>1</v>
+      </c>
+      <c r="F9" s="7">
+        <v>0</v>
+      </c>
+      <c r="G9" s="7">
+        <v>1</v>
+      </c>
+      <c r="H9" s="7">
+        <v>1</v>
+      </c>
+      <c r="I9" s="7">
+        <v>-1</v>
+      </c>
+      <c r="J9" s="6">
+        <v>0</v>
+      </c>
+      <c r="K9" s="8">
+        <v>0</v>
+      </c>
+      <c r="L9" s="8">
+        <v>0</v>
+      </c>
+      <c r="M9" s="6">
+        <v>0</v>
+      </c>
+      <c r="N9" s="6">
+        <v>0</v>
+      </c>
+      <c r="O9" s="6">
+        <v>0</v>
       </c>
       <c r="P9" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="Q9" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="L10" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="M10" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="N10" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="O10" s="3" t="s">
-        <v>17</v>
+      <c r="A10" s="4">
+        <v>108</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="6">
+        <v>0</v>
+      </c>
+      <c r="F10" s="7">
+        <v>0</v>
+      </c>
+      <c r="G10" s="7">
+        <v>1</v>
+      </c>
+      <c r="H10" s="7">
+        <v>1</v>
+      </c>
+      <c r="I10" s="7">
+        <v>-1</v>
+      </c>
+      <c r="J10" s="6">
+        <v>0</v>
+      </c>
+      <c r="K10" s="8">
+        <v>0</v>
+      </c>
+      <c r="L10" s="8">
+        <v>0</v>
+      </c>
+      <c r="M10" s="6">
+        <v>0</v>
+      </c>
+      <c r="N10" s="6">
+        <v>0</v>
+      </c>
+      <c r="O10" s="6">
+        <v>0</v>
       </c>
       <c r="P10" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="Q10" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G11" s="3" t="s">
+      <c r="A11" s="4">
+        <v>109</v>
+      </c>
+      <c r="B11" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="H11" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="K11" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="L11" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="M11" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="N11" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="O11" s="3" t="s">
-        <v>17</v>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="6">
+        <v>1</v>
+      </c>
+      <c r="F11" s="7">
+        <v>0</v>
+      </c>
+      <c r="G11" s="7">
+        <v>1</v>
+      </c>
+      <c r="H11" s="7">
+        <v>1</v>
+      </c>
+      <c r="I11" s="7">
+        <v>-1</v>
+      </c>
+      <c r="J11" s="6">
+        <v>0</v>
+      </c>
+      <c r="K11" s="8">
+        <v>0</v>
+      </c>
+      <c r="L11" s="8">
+        <v>0</v>
+      </c>
+      <c r="M11" s="6">
+        <v>0</v>
+      </c>
+      <c r="N11" s="6">
+        <v>0</v>
+      </c>
+      <c r="O11" s="6">
+        <v>0</v>
       </c>
       <c r="P11" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="Q11" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I12" s="3" t="s">
+      <c r="A12" s="4">
+        <v>110</v>
+      </c>
+      <c r="B12" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="J12" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="K12" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="L12" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="M12" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="N12" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="O12" s="3" t="s">
-        <v>17</v>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="6">
+        <v>1</v>
+      </c>
+      <c r="F12" s="7">
+        <v>0</v>
+      </c>
+      <c r="G12" s="7">
+        <v>1</v>
+      </c>
+      <c r="H12" s="7">
+        <v>1</v>
+      </c>
+      <c r="I12" s="7">
+        <v>-1</v>
+      </c>
+      <c r="J12" s="6">
+        <v>0</v>
+      </c>
+      <c r="K12" s="8">
+        <v>0</v>
+      </c>
+      <c r="L12" s="8">
+        <v>0</v>
+      </c>
+      <c r="M12" s="6">
+        <v>0</v>
+      </c>
+      <c r="N12" s="6">
+        <v>0</v>
+      </c>
+      <c r="O12" s="6">
+        <v>0</v>
       </c>
       <c r="P12" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="Q12" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I13" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="J13" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="K13" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="L13" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="M13" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="N13" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="O13" s="3" t="s">
-        <v>17</v>
+      <c r="A13" s="4">
+        <v>111</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="6">
+        <v>1</v>
+      </c>
+      <c r="F13" s="7">
+        <v>0</v>
+      </c>
+      <c r="G13" s="7">
+        <v>1</v>
+      </c>
+      <c r="H13" s="7">
+        <v>1</v>
+      </c>
+      <c r="I13" s="7">
+        <v>-1</v>
+      </c>
+      <c r="J13" s="6">
+        <v>0</v>
+      </c>
+      <c r="K13" s="8">
+        <v>0</v>
+      </c>
+      <c r="L13" s="8">
+        <v>0</v>
+      </c>
+      <c r="M13" s="6">
+        <v>0</v>
+      </c>
+      <c r="N13" s="6">
+        <v>0</v>
+      </c>
+      <c r="O13" s="6">
+        <v>0</v>
       </c>
       <c r="P13" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="Q13" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/ExcelConfig/pbjson/excel/人类信息表.xlsx
+++ b/ExcelConfig/pbjson/excel/人类信息表.xlsx
@@ -8,14 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\CatClub\ExcelConfig\pbjson\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59AF1424-CFB5-45E1-970E-AD71F6A84961}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47577FA5-BEAE-4DD3-8DC7-04E15554E9D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5070" yWindow="3690" windowWidth="19290" windowHeight="17910" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6750" yWindow="2160" windowWidth="19290" windowHeight="17910" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#人类信息配置" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -836,7 +846,7 @@
   <dimension ref="A1:Q13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -909,7 +919,7 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
-        <v>100</v>
+        <v>60000</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>17</v>
@@ -931,7 +941,7 @@
         <v>1</v>
       </c>
       <c r="I2" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2" s="6">
         <v>0</v>
@@ -943,10 +953,10 @@
         <v>0</v>
       </c>
       <c r="M2" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N2" s="6">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="O2" s="6">
         <v>0</v>
@@ -960,7 +970,7 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
-        <v>101</v>
+        <v>60001</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>18</v>
@@ -982,7 +992,7 @@
         <v>1</v>
       </c>
       <c r="I3" s="7">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="J3" s="6">
         <v>0</v>
@@ -1011,7 +1021,7 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
-        <v>102</v>
+        <v>60002</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>20</v>
@@ -1031,7 +1041,7 @@
         <v>1</v>
       </c>
       <c r="I4" s="7">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="J4" s="6">
         <v>0</v>
@@ -1060,7 +1070,7 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
-        <v>103</v>
+        <v>60003</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>19</v>
@@ -1082,7 +1092,7 @@
         <v>1</v>
       </c>
       <c r="I5" s="7">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="J5" s="6">
         <v>0</v>
@@ -1111,7 +1121,7 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
-        <v>104</v>
+        <v>60004</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>21</v>
@@ -1131,7 +1141,7 @@
         <v>1</v>
       </c>
       <c r="I6" s="7">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="J6" s="6">
         <v>0</v>
@@ -1160,7 +1170,7 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
-        <v>105</v>
+        <v>60005</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>25</v>
@@ -1180,7 +1190,7 @@
         <v>1</v>
       </c>
       <c r="I7" s="7">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="J7" s="6">
         <v>0</v>
@@ -1209,7 +1219,7 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
-        <v>106</v>
+        <v>60006</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>23</v>
@@ -1229,7 +1239,7 @@
         <v>1</v>
       </c>
       <c r="I8" s="7">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="J8" s="6">
         <v>0</v>
@@ -1258,7 +1268,7 @@
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
-        <v>107</v>
+        <v>60007</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>24</v>
@@ -1278,7 +1288,7 @@
         <v>1</v>
       </c>
       <c r="I9" s="7">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="J9" s="6">
         <v>0</v>
@@ -1307,7 +1317,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
-        <v>108</v>
+        <v>60008</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>26</v>
@@ -1327,7 +1337,7 @@
         <v>1</v>
       </c>
       <c r="I10" s="7">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="J10" s="6">
         <v>0</v>
@@ -1356,7 +1366,7 @@
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
-        <v>109</v>
+        <v>60009</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>31</v>
@@ -1376,7 +1386,7 @@
         <v>1</v>
       </c>
       <c r="I11" s="7">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="J11" s="6">
         <v>0</v>
@@ -1405,7 +1415,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
-        <v>110</v>
+        <v>60010</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>32</v>
@@ -1425,7 +1435,7 @@
         <v>1</v>
       </c>
       <c r="I12" s="7">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="J12" s="6">
         <v>0</v>
@@ -1454,7 +1464,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
-        <v>111</v>
+        <v>60011</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>22</v>
@@ -1474,7 +1484,7 @@
         <v>1</v>
       </c>
       <c r="I13" s="7">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="J13" s="6">
         <v>0</v>

--- a/ExcelConfig/pbjson/excel/人类信息表.xlsx
+++ b/ExcelConfig/pbjson/excel/人类信息表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\CatClub\ExcelConfig\pbjson\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47577FA5-BEAE-4DD3-8DC7-04E15554E9D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{073720D7-9B1A-4F2F-923D-C6B7B25671DF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6750" yWindow="2160" windowWidth="19290" windowHeight="17910" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10560" yWindow="5175" windowWidth="25020" windowHeight="14040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#人类信息配置" sheetId="1" r:id="rId1"/>
@@ -295,7 +295,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="42">
   <si>
     <t>人物编号</t>
   </si>
@@ -350,22 +350,6 @@
     <t>初始亲密度</t>
   </si>
   <si>
-    <t>国王</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>王后</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主教</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>叔叔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>女仆</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -378,10 +362,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>侍卫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>炼金术士</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -394,23 +374,79 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>XX国王</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>XX王后</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>白衣主教</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大厨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>幕僚</t>
+    <t>葛林</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>因西亚国王</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>茵菲尔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>因西亚王后</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安彼西奥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>亲王</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>佩尔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红衣主教</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>嘉帕兹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>门提尔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>班诺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>瓦林提亚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>侍从</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>费琳娜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>依斯皮柯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>厨师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尼奥塔德</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>侯爵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>塞达</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -507,7 +543,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -528,6 +564,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -846,7 +885,7 @@
   <dimension ref="A1:Q13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -922,10 +961,10 @@
         <v>60000</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="6">
@@ -956,27 +995,27 @@
         <v>0</v>
       </c>
       <c r="N2" s="6">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="O2" s="6">
         <v>0</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
         <v>60001</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>18</v>
+      <c r="B3" s="9" t="s">
+        <v>25</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="6">
@@ -1007,16 +1046,16 @@
         <v>0</v>
       </c>
       <c r="N3" s="6">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="O3" s="6">
         <v>0</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="Q3" s="3" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
@@ -1024,9 +1063,11 @@
         <v>60002</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="5"/>
+        <v>27</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>28</v>
+      </c>
       <c r="D4" s="5"/>
       <c r="E4" s="6">
         <v>1</v>
@@ -1056,16 +1097,16 @@
         <v>0</v>
       </c>
       <c r="N4" s="6">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="O4" s="6">
         <v>0</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="Q4" s="3" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
@@ -1073,7 +1114,7 @@
         <v>60003</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>30</v>
@@ -1107,16 +1148,16 @@
         <v>0</v>
       </c>
       <c r="N5" s="6">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="O5" s="6">
         <v>0</v>
       </c>
       <c r="P5" s="3" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="Q5" s="3" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
@@ -1124,9 +1165,11 @@
         <v>60004</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="5"/>
+        <v>31</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="D6" s="5"/>
       <c r="E6" s="6">
         <v>0</v>
@@ -1156,16 +1199,16 @@
         <v>0</v>
       </c>
       <c r="N6" s="6">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="O6" s="6">
         <v>0</v>
       </c>
       <c r="P6" s="3" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="Q6" s="3" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
@@ -1173,9 +1216,11 @@
         <v>60005</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="5"/>
+        <v>32</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>20</v>
+      </c>
       <c r="D7" s="5"/>
       <c r="E7" s="6">
         <v>1</v>
@@ -1205,16 +1250,16 @@
         <v>0</v>
       </c>
       <c r="N7" s="6">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="O7" s="6">
         <v>0</v>
       </c>
       <c r="P7" s="3" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="Q7" s="3" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
@@ -1222,9 +1267,11 @@
         <v>60006</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="5"/>
+        <v>33</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>19</v>
+      </c>
       <c r="D8" s="5"/>
       <c r="E8" s="6">
         <v>1</v>
@@ -1254,16 +1301,16 @@
         <v>0</v>
       </c>
       <c r="N8" s="6">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="O8" s="6">
         <v>0</v>
       </c>
       <c r="P8" s="3" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="Q8" s="3" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
@@ -1271,9 +1318,11 @@
         <v>60007</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" s="5"/>
+        <v>34</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>35</v>
+      </c>
       <c r="D9" s="5"/>
       <c r="E9" s="6">
         <v>1</v>
@@ -1303,16 +1352,16 @@
         <v>0</v>
       </c>
       <c r="N9" s="6">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="O9" s="6">
         <v>0</v>
       </c>
       <c r="P9" s="3" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="Q9" s="3" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
@@ -1320,9 +1369,11 @@
         <v>60008</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" s="5"/>
+        <v>36</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>21</v>
+      </c>
       <c r="D10" s="5"/>
       <c r="E10" s="6">
         <v>0</v>
@@ -1352,16 +1403,16 @@
         <v>0</v>
       </c>
       <c r="N10" s="6">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="O10" s="6">
         <v>0</v>
       </c>
       <c r="P10" s="3" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="Q10" s="3" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
@@ -1369,9 +1420,11 @@
         <v>60009</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C11" s="5"/>
+        <v>37</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>38</v>
+      </c>
       <c r="D11" s="5"/>
       <c r="E11" s="6">
         <v>1</v>
@@ -1401,16 +1454,16 @@
         <v>0</v>
       </c>
       <c r="N11" s="6">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="O11" s="6">
         <v>0</v>
       </c>
       <c r="P11" s="3" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="Q11" s="3" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.2">
@@ -1418,9 +1471,11 @@
         <v>60010</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12" s="5"/>
+        <v>39</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>40</v>
+      </c>
       <c r="D12" s="5"/>
       <c r="E12" s="6">
         <v>1</v>
@@ -1450,16 +1505,16 @@
         <v>0</v>
       </c>
       <c r="N12" s="6">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="O12" s="6">
         <v>0</v>
       </c>
       <c r="P12" s="3" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="Q12" s="3" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.2">
@@ -1467,9 +1522,11 @@
         <v>60011</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" s="5"/>
+        <v>41</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>18</v>
+      </c>
       <c r="D13" s="5"/>
       <c r="E13" s="6">
         <v>1</v>
@@ -1499,16 +1556,16 @@
         <v>0</v>
       </c>
       <c r="N13" s="6">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="O13" s="6">
         <v>0</v>
       </c>
       <c r="P13" s="3" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="Q13" s="3" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/ExcelConfig/pbjson/excel/人类信息表.xlsx
+++ b/ExcelConfig/pbjson/excel/人类信息表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\CatClub\ExcelConfig\pbjson\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{073720D7-9B1A-4F2F-923D-C6B7B25671DF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9671048-4559-41D0-A08C-5D9816DB99D8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10560" yWindow="5175" windowWidth="25020" windowHeight="14040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4245" yWindow="8805" windowWidth="22800" windowHeight="10605" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#人类信息配置" sheetId="1" r:id="rId1"/>
@@ -885,7 +885,7 @@
   <dimension ref="A1:Q13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -977,28 +977,28 @@
         <v>1</v>
       </c>
       <c r="H2" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" s="7">
         <v>0</v>
       </c>
       <c r="J2" s="6">
-        <v>0</v>
+        <v>70000</v>
       </c>
       <c r="K2" s="8">
-        <v>0</v>
+        <v>70001</v>
       </c>
       <c r="L2" s="8">
-        <v>0</v>
+        <v>70002</v>
       </c>
       <c r="M2" s="6">
         <v>0</v>
       </c>
       <c r="N2" s="6">
+        <v>0</v>
+      </c>
+      <c r="O2" s="6">
         <v>10</v>
-      </c>
-      <c r="O2" s="6">
-        <v>0</v>
       </c>
       <c r="P2" s="3" t="s">
         <v>22</v>
@@ -1028,28 +1028,28 @@
         <v>1</v>
       </c>
       <c r="H3" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" s="7">
         <v>0</v>
       </c>
       <c r="J3" s="6">
-        <v>0</v>
+        <v>70010</v>
       </c>
       <c r="K3" s="8">
-        <v>0</v>
+        <v>70011</v>
       </c>
       <c r="L3" s="8">
-        <v>0</v>
+        <v>70012</v>
       </c>
       <c r="M3" s="6">
         <v>0</v>
       </c>
       <c r="N3" s="6">
+        <v>0</v>
+      </c>
+      <c r="O3" s="6">
         <v>10</v>
-      </c>
-      <c r="O3" s="6">
-        <v>0</v>
       </c>
       <c r="P3" s="3" t="s">
         <v>22</v>
@@ -1079,28 +1079,28 @@
         <v>1</v>
       </c>
       <c r="H4" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" s="7">
         <v>0</v>
       </c>
       <c r="J4" s="6">
-        <v>0</v>
+        <v>70020</v>
       </c>
       <c r="K4" s="8">
-        <v>0</v>
+        <v>70021</v>
       </c>
       <c r="L4" s="8">
-        <v>0</v>
+        <v>70022</v>
       </c>
       <c r="M4" s="6">
         <v>0</v>
       </c>
       <c r="N4" s="6">
+        <v>0</v>
+      </c>
+      <c r="O4" s="6">
         <v>10</v>
-      </c>
-      <c r="O4" s="6">
-        <v>0</v>
       </c>
       <c r="P4" s="3" t="s">
         <v>22</v>
@@ -1136,22 +1136,22 @@
         <v>0</v>
       </c>
       <c r="J5" s="6">
-        <v>0</v>
+        <v>70030</v>
       </c>
       <c r="K5" s="8">
-        <v>0</v>
+        <v>70031</v>
       </c>
       <c r="L5" s="8">
-        <v>0</v>
+        <v>70032</v>
       </c>
       <c r="M5" s="6">
         <v>0</v>
       </c>
       <c r="N5" s="6">
+        <v>0</v>
+      </c>
+      <c r="O5" s="6">
         <v>10</v>
-      </c>
-      <c r="O5" s="6">
-        <v>0</v>
       </c>
       <c r="P5" s="3" t="s">
         <v>22</v>
@@ -1187,22 +1187,22 @@
         <v>0</v>
       </c>
       <c r="J6" s="6">
-        <v>0</v>
+        <v>70040</v>
       </c>
       <c r="K6" s="8">
-        <v>0</v>
+        <v>70041</v>
       </c>
       <c r="L6" s="8">
-        <v>0</v>
+        <v>70042</v>
       </c>
       <c r="M6" s="6">
         <v>0</v>
       </c>
       <c r="N6" s="6">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="O6" s="6">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="P6" s="3" t="s">
         <v>22</v>
@@ -1238,22 +1238,22 @@
         <v>0</v>
       </c>
       <c r="J7" s="6">
-        <v>0</v>
+        <v>70050</v>
       </c>
       <c r="K7" s="8">
-        <v>0</v>
+        <v>70051</v>
       </c>
       <c r="L7" s="8">
-        <v>0</v>
+        <v>70052</v>
       </c>
       <c r="M7" s="6">
         <v>0</v>
       </c>
       <c r="N7" s="6">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="O7" s="6">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="P7" s="3" t="s">
         <v>22</v>
@@ -1289,22 +1289,22 @@
         <v>0</v>
       </c>
       <c r="J8" s="6">
-        <v>0</v>
+        <v>70060</v>
       </c>
       <c r="K8" s="8">
-        <v>0</v>
+        <v>70061</v>
       </c>
       <c r="L8" s="8">
-        <v>0</v>
+        <v>70062</v>
       </c>
       <c r="M8" s="6">
         <v>0</v>
       </c>
       <c r="N8" s="6">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="O8" s="6">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="P8" s="3" t="s">
         <v>22</v>
@@ -1340,22 +1340,22 @@
         <v>0</v>
       </c>
       <c r="J9" s="6">
-        <v>0</v>
+        <v>70070</v>
       </c>
       <c r="K9" s="8">
-        <v>0</v>
+        <v>70071</v>
       </c>
       <c r="L9" s="8">
-        <v>0</v>
+        <v>70072</v>
       </c>
       <c r="M9" s="6">
         <v>0</v>
       </c>
       <c r="N9" s="6">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="O9" s="6">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="P9" s="3" t="s">
         <v>22</v>
@@ -1388,25 +1388,25 @@
         <v>1</v>
       </c>
       <c r="I10" s="7">
-        <v>0</v>
+        <v>61000</v>
       </c>
       <c r="J10" s="6">
-        <v>0</v>
+        <v>70080</v>
       </c>
       <c r="K10" s="8">
-        <v>0</v>
+        <v>70081</v>
       </c>
       <c r="L10" s="8">
-        <v>0</v>
+        <v>70082</v>
       </c>
       <c r="M10" s="6">
         <v>0</v>
       </c>
       <c r="N10" s="6">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="O10" s="6">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="P10" s="3" t="s">
         <v>22</v>
@@ -1442,22 +1442,22 @@
         <v>0</v>
       </c>
       <c r="J11" s="6">
-        <v>0</v>
+        <v>70090</v>
       </c>
       <c r="K11" s="8">
-        <v>0</v>
+        <v>70091</v>
       </c>
       <c r="L11" s="8">
-        <v>0</v>
+        <v>70092</v>
       </c>
       <c r="M11" s="6">
         <v>0</v>
       </c>
       <c r="N11" s="6">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="O11" s="6">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="P11" s="3" t="s">
         <v>22</v>
@@ -1493,22 +1493,22 @@
         <v>0</v>
       </c>
       <c r="J12" s="6">
-        <v>0</v>
+        <v>70100</v>
       </c>
       <c r="K12" s="8">
-        <v>0</v>
+        <v>70101</v>
       </c>
       <c r="L12" s="8">
-        <v>0</v>
+        <v>70102</v>
       </c>
       <c r="M12" s="6">
         <v>0</v>
       </c>
       <c r="N12" s="6">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="O12" s="6">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="P12" s="3" t="s">
         <v>22</v>
@@ -1544,22 +1544,22 @@
         <v>0</v>
       </c>
       <c r="J13" s="6">
-        <v>0</v>
+        <v>70110</v>
       </c>
       <c r="K13" s="8">
-        <v>0</v>
+        <v>70111</v>
       </c>
       <c r="L13" s="8">
-        <v>0</v>
+        <v>70112</v>
       </c>
       <c r="M13" s="6">
         <v>0</v>
       </c>
       <c r="N13" s="6">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="O13" s="6">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="P13" s="3" t="s">
         <v>22</v>
@@ -1571,6 +1571,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/ExcelConfig/pbjson/excel/人类信息表.xlsx
+++ b/ExcelConfig/pbjson/excel/人类信息表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\CatClub\ExcelConfig\pbjson\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9671048-4559-41D0-A08C-5D9816DB99D8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4E3A563-9CFF-4D82-8F74-59AD618C4C4A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4245" yWindow="8805" windowWidth="22800" windowHeight="10605" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3255" yWindow="6435" windowWidth="22800" windowHeight="10605" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#人类信息配置" sheetId="1" r:id="rId1"/>
@@ -885,7 +885,7 @@
   <dimension ref="A1:Q13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -966,7 +966,9 @@
       <c r="C2" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="5"/>
+      <c r="D2" s="5">
+        <v>60000</v>
+      </c>
       <c r="E2" s="6">
         <v>1</v>
       </c>
@@ -992,13 +994,13 @@
         <v>70002</v>
       </c>
       <c r="M2" s="6">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N2" s="6">
         <v>0</v>
       </c>
       <c r="O2" s="6">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="P2" s="3" t="s">
         <v>22</v>
@@ -1017,7 +1019,9 @@
       <c r="C3" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="5"/>
+      <c r="D3" s="5">
+        <v>60001</v>
+      </c>
       <c r="E3" s="6">
         <v>0</v>
       </c>
@@ -1043,13 +1047,13 @@
         <v>70012</v>
       </c>
       <c r="M3" s="6">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N3" s="6">
         <v>0</v>
       </c>
       <c r="O3" s="6">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="P3" s="3" t="s">
         <v>22</v>
@@ -1068,7 +1072,9 @@
       <c r="C4" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="5"/>
+      <c r="D4" s="5">
+        <v>60002</v>
+      </c>
       <c r="E4" s="6">
         <v>1</v>
       </c>
@@ -1094,13 +1100,13 @@
         <v>70022</v>
       </c>
       <c r="M4" s="6">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N4" s="6">
         <v>0</v>
       </c>
       <c r="O4" s="6">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="P4" s="3" t="s">
         <v>22</v>
@@ -1119,7 +1125,9 @@
       <c r="C5" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="5"/>
+      <c r="D5" s="5">
+        <v>60003</v>
+      </c>
       <c r="E5" s="6">
         <v>1</v>
       </c>
@@ -1145,13 +1153,13 @@
         <v>70032</v>
       </c>
       <c r="M5" s="6">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N5" s="6">
         <v>0</v>
       </c>
       <c r="O5" s="6">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="P5" s="3" t="s">
         <v>22</v>
@@ -1170,7 +1178,9 @@
       <c r="C6" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="5"/>
+      <c r="D6" s="5">
+        <v>60004</v>
+      </c>
       <c r="E6" s="6">
         <v>0</v>
       </c>
@@ -1196,13 +1206,13 @@
         <v>70042</v>
       </c>
       <c r="M6" s="6">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="N6" s="6">
         <v>0</v>
       </c>
       <c r="O6" s="6">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="P6" s="3" t="s">
         <v>22</v>
@@ -1221,7 +1231,9 @@
       <c r="C7" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="5"/>
+      <c r="D7" s="5">
+        <v>60005</v>
+      </c>
       <c r="E7" s="6">
         <v>1</v>
       </c>
@@ -1247,13 +1259,13 @@
         <v>70052</v>
       </c>
       <c r="M7" s="6">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="N7" s="6">
         <v>0</v>
       </c>
       <c r="O7" s="6">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="P7" s="3" t="s">
         <v>22</v>
@@ -1272,7 +1284,9 @@
       <c r="C8" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="5"/>
+      <c r="D8" s="5">
+        <v>60006</v>
+      </c>
       <c r="E8" s="6">
         <v>1</v>
       </c>
@@ -1298,13 +1312,13 @@
         <v>70062</v>
       </c>
       <c r="M8" s="6">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="N8" s="6">
         <v>0</v>
       </c>
       <c r="O8" s="6">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="P8" s="3" t="s">
         <v>22</v>
@@ -1323,7 +1337,9 @@
       <c r="C9" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D9" s="5"/>
+      <c r="D9" s="5">
+        <v>60007</v>
+      </c>
       <c r="E9" s="6">
         <v>1</v>
       </c>
@@ -1349,13 +1365,13 @@
         <v>70072</v>
       </c>
       <c r="M9" s="6">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="N9" s="6">
         <v>0</v>
       </c>
       <c r="O9" s="6">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="P9" s="3" t="s">
         <v>22</v>
@@ -1374,7 +1390,9 @@
       <c r="C10" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="5"/>
+      <c r="D10" s="5">
+        <v>60008</v>
+      </c>
       <c r="E10" s="6">
         <v>0</v>
       </c>
@@ -1400,13 +1418,13 @@
         <v>70082</v>
       </c>
       <c r="M10" s="6">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="N10" s="6">
         <v>0</v>
       </c>
       <c r="O10" s="6">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="P10" s="3" t="s">
         <v>22</v>
@@ -1425,7 +1443,9 @@
       <c r="C11" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D11" s="5"/>
+      <c r="D11" s="5">
+        <v>60009</v>
+      </c>
       <c r="E11" s="6">
         <v>1</v>
       </c>
@@ -1451,13 +1471,13 @@
         <v>70092</v>
       </c>
       <c r="M11" s="6">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="N11" s="6">
         <v>0</v>
       </c>
       <c r="O11" s="6">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="P11" s="3" t="s">
         <v>22</v>
@@ -1476,7 +1496,9 @@
       <c r="C12" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D12" s="5"/>
+      <c r="D12" s="5">
+        <v>60010</v>
+      </c>
       <c r="E12" s="6">
         <v>1</v>
       </c>
@@ -1502,13 +1524,13 @@
         <v>70102</v>
       </c>
       <c r="M12" s="6">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="N12" s="6">
         <v>0</v>
       </c>
       <c r="O12" s="6">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="P12" s="3" t="s">
         <v>22</v>
@@ -1527,7 +1549,9 @@
       <c r="C13" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="5"/>
+      <c r="D13" s="5">
+        <v>60011</v>
+      </c>
       <c r="E13" s="6">
         <v>1</v>
       </c>
@@ -1553,13 +1577,13 @@
         <v>70112</v>
       </c>
       <c r="M13" s="6">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="N13" s="6">
         <v>0</v>
       </c>
       <c r="O13" s="6">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="P13" s="3" t="s">
         <v>22</v>

--- a/ExcelConfig/pbjson/excel/人类信息表.xlsx
+++ b/ExcelConfig/pbjson/excel/人类信息表.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\CatClub\ExcelConfig\pbjson\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Fork Source\CatClub\ExcelConfig\pbjson\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4E3A563-9CFF-4D82-8F74-59AD618C4C4A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4E505A7-FEFB-4402-9C84-67994B7FADD9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3255" yWindow="6435" windowWidth="22800" windowHeight="10605" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="735" yWindow="735" windowWidth="21600" windowHeight="11220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#人类信息配置" sheetId="1" r:id="rId1"/>
@@ -295,7 +295,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="54">
   <si>
     <t>人物编号</t>
   </si>
@@ -447,6 +447,54 @@
   </si>
   <si>
     <t>塞达</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprites\Portraits\60000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprites\Portraits\60001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprites\Portraits\60002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprites\Portraits\60003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprites\Portraits\60004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprites\Portraits\60005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprites\Portraits\60006</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprites\Portraits\60007</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprites\Portraits\60008</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprites\Portraits\60009</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprites\Portraits\60010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprites\Portraits\60011</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -885,7 +933,7 @@
   <dimension ref="A1:Q13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -966,8 +1014,8 @@
       <c r="C2" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="5">
-        <v>60000</v>
+      <c r="D2" s="5" t="s">
+        <v>42</v>
       </c>
       <c r="E2" s="6">
         <v>1</v>
@@ -1019,8 +1067,8 @@
       <c r="C3" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="5">
-        <v>60001</v>
+      <c r="D3" s="5" t="s">
+        <v>43</v>
       </c>
       <c r="E3" s="6">
         <v>0</v>
@@ -1072,8 +1120,8 @@
       <c r="C4" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="5">
-        <v>60002</v>
+      <c r="D4" s="5" t="s">
+        <v>44</v>
       </c>
       <c r="E4" s="6">
         <v>1</v>
@@ -1125,8 +1173,8 @@
       <c r="C5" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="5">
-        <v>60003</v>
+      <c r="D5" s="5" t="s">
+        <v>45</v>
       </c>
       <c r="E5" s="6">
         <v>1</v>
@@ -1178,8 +1226,8 @@
       <c r="C6" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="5">
-        <v>60004</v>
+      <c r="D6" s="5" t="s">
+        <v>46</v>
       </c>
       <c r="E6" s="6">
         <v>0</v>
@@ -1231,8 +1279,8 @@
       <c r="C7" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="5">
-        <v>60005</v>
+      <c r="D7" s="5" t="s">
+        <v>47</v>
       </c>
       <c r="E7" s="6">
         <v>1</v>
@@ -1284,8 +1332,8 @@
       <c r="C8" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="5">
-        <v>60006</v>
+      <c r="D8" s="5" t="s">
+        <v>48</v>
       </c>
       <c r="E8" s="6">
         <v>1</v>
@@ -1337,8 +1385,8 @@
       <c r="C9" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D9" s="5">
-        <v>60007</v>
+      <c r="D9" s="5" t="s">
+        <v>49</v>
       </c>
       <c r="E9" s="6">
         <v>1</v>
@@ -1390,8 +1438,8 @@
       <c r="C10" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="5">
-        <v>60008</v>
+      <c r="D10" s="5" t="s">
+        <v>50</v>
       </c>
       <c r="E10" s="6">
         <v>0</v>
@@ -1443,8 +1491,8 @@
       <c r="C11" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D11" s="5">
-        <v>60009</v>
+      <c r="D11" s="5" t="s">
+        <v>51</v>
       </c>
       <c r="E11" s="6">
         <v>1</v>
@@ -1496,8 +1544,8 @@
       <c r="C12" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D12" s="5">
-        <v>60010</v>
+      <c r="D12" s="5" t="s">
+        <v>52</v>
       </c>
       <c r="E12" s="6">
         <v>1</v>
@@ -1549,8 +1597,8 @@
       <c r="C13" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="5">
-        <v>60011</v>
+      <c r="D13" s="5" t="s">
+        <v>53</v>
       </c>
       <c r="E13" s="6">
         <v>1</v>

--- a/ExcelConfig/pbjson/excel/人类信息表.xlsx
+++ b/ExcelConfig/pbjson/excel/人类信息表.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Fork Source\CatClub\ExcelConfig\pbjson\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\CatClub\ExcelConfig\pbjson\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4E505A7-FEFB-4402-9C84-67994B7FADD9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDEA71C3-B4DD-4289-9042-84D500E78A53}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="735" yWindow="735" windowWidth="21600" windowHeight="11220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3750" yWindow="4155" windowWidth="21465" windowHeight="14685" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#人类信息配置" sheetId="1" r:id="rId1"/>
@@ -170,51 +170,6 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="等线"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>tags
-int64</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000B000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="等线"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>tags
-int64</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000C000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="等线"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>tags
-int64</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="M1" authorId="0" shapeId="0" xr:uid="{3F363207-5358-4285-8551-14FB5DAB4377}">
       <text>
         <r>
@@ -245,49 +200,28 @@
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000E000000}">
+    <comment ref="J1" authorId="0">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="等线"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>PsyDefense
-int32</t>
-        </r>
+        <t>tags
+string</t>
       </text>
     </comment>
-    <comment ref="P1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000010000000}">
+    <comment ref="K1" authorId="0">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="等线"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>tendToRaiseCat
-int32</t>
-        </r>
+        <t>tags
+string</t>
       </text>
     </comment>
-    <comment ref="Q1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000011000000}">
+    <comment ref="L1" authorId="0">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="等线"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>FavorValue
+        <t>tags
+string</t>
+      </text>
+    </comment>
+    <comment ref="O1" authorId="0">
+      <text>
+        <t>Defense
 int32</t>
-        </r>
       </text>
     </comment>
   </commentList>
@@ -295,7 +229,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>人物编号</t>
   </si>
@@ -344,12 +278,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>初始养猫意向</t>
-  </si>
-  <si>
-    <t>初始亲密度</t>
-  </si>
-  <si>
     <t>女仆</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -367,10 +295,6 @@
   </si>
   <si>
     <t>医生</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -502,6 +426,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -597,7 +522,6 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -616,6 +540,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -631,6 +556,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -930,28 +859,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q13"/>
+  <dimension ref="A1:O13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9" style="1" customWidth="1"/>
-    <col min="2" max="5" width="8" style="1"/>
-    <col min="6" max="6" width="15" style="1" customWidth="1"/>
-    <col min="7" max="8" width="9" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13" style="1" customWidth="1"/>
-    <col min="10" max="12" width="8" style="1"/>
-    <col min="13" max="13" width="9" style="2"/>
-    <col min="14" max="14" width="11" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13" style="1" customWidth="1"/>
-    <col min="16" max="16" width="13" style="3" customWidth="1"/>
-    <col min="17" max="17" width="11" style="3" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="9.0" collapsed="false"/>
+    <col min="2" max="5" style="1" width="8.0" collapsed="false"/>
+    <col min="6" max="6" customWidth="true" style="1" width="15.0" collapsed="false"/>
+    <col min="7" max="8" customWidth="true" style="1" width="9.0" collapsed="false"/>
+    <col min="9" max="9" customWidth="true" style="1" width="13.0" collapsed="false"/>
+    <col min="10" max="12" style="1" width="8.0" collapsed="false"/>
+    <col min="13" max="13" style="2" width="9.0" collapsed="false"/>
+    <col min="14" max="14" customWidth="true" style="1" width="11.0" collapsed="false"/>
+    <col min="15" max="15" customWidth="true" style="1" width="13.0" collapsed="false"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -997,653 +924,576 @@
       <c r="O1" t="s">
         <v>13</v>
       </c>
-      <c r="P1" t="s">
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A2" s="3">
+        <v>60000</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" s="5">
+        <v>1</v>
+      </c>
+      <c r="F2" s="6">
+        <v>1</v>
+      </c>
+      <c r="G2" s="6">
+        <v>1</v>
+      </c>
+      <c r="H2" s="6">
+        <v>0</v>
+      </c>
+      <c r="I2" s="6">
+        <v>0</v>
+      </c>
+      <c r="J2" s="5">
+        <v>70000</v>
+      </c>
+      <c r="K2" s="7">
+        <v>70001</v>
+      </c>
+      <c r="L2" s="7">
+        <v>70002</v>
+      </c>
+      <c r="M2" s="5">
+        <v>10</v>
+      </c>
+      <c r="N2" s="5">
+        <v>0</v>
+      </c>
+      <c r="O2" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A3" s="3">
+        <v>60001</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" s="5">
+        <v>0</v>
+      </c>
+      <c r="F3" s="6">
+        <v>1</v>
+      </c>
+      <c r="G3" s="6">
+        <v>1</v>
+      </c>
+      <c r="H3" s="6">
+        <v>0</v>
+      </c>
+      <c r="I3" s="6">
+        <v>0</v>
+      </c>
+      <c r="J3" s="5">
+        <v>70010</v>
+      </c>
+      <c r="K3" s="7">
+        <v>70011</v>
+      </c>
+      <c r="L3" s="7">
+        <v>70012</v>
+      </c>
+      <c r="M3" s="5">
+        <v>10</v>
+      </c>
+      <c r="N3" s="5">
+        <v>0</v>
+      </c>
+      <c r="O3" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
+        <v>60002</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" s="5">
+        <v>1</v>
+      </c>
+      <c r="F4" s="6">
+        <v>1</v>
+      </c>
+      <c r="G4" s="6">
+        <v>1</v>
+      </c>
+      <c r="H4" s="6">
+        <v>0</v>
+      </c>
+      <c r="I4" s="6">
+        <v>0</v>
+      </c>
+      <c r="J4" s="5">
+        <v>70020</v>
+      </c>
+      <c r="K4" s="7">
+        <v>70021</v>
+      </c>
+      <c r="L4" s="7">
+        <v>70022</v>
+      </c>
+      <c r="M4" s="5">
+        <v>10</v>
+      </c>
+      <c r="N4" s="5">
+        <v>0</v>
+      </c>
+      <c r="O4" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A5" s="3">
+        <v>60003</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" s="5">
+        <v>1</v>
+      </c>
+      <c r="F5" s="6">
+        <v>1</v>
+      </c>
+      <c r="G5" s="6">
+        <v>1</v>
+      </c>
+      <c r="H5" s="6">
+        <v>1</v>
+      </c>
+      <c r="I5" s="6">
+        <v>0</v>
+      </c>
+      <c r="J5" s="5">
+        <v>70030</v>
+      </c>
+      <c r="K5" s="7">
+        <v>70031</v>
+      </c>
+      <c r="L5" s="7">
+        <v>70032</v>
+      </c>
+      <c r="M5" s="5">
+        <v>10</v>
+      </c>
+      <c r="N5" s="5">
+        <v>0</v>
+      </c>
+      <c r="O5" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
+        <v>60004</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="D6" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" s="5">
+        <v>0</v>
+      </c>
+      <c r="F6" s="6">
+        <v>0</v>
+      </c>
+      <c r="G6" s="6">
+        <v>1</v>
+      </c>
+      <c r="H6" s="6">
+        <v>1</v>
+      </c>
+      <c r="I6" s="6">
+        <v>0</v>
+      </c>
+      <c r="J6" s="5">
+        <v>70040</v>
+      </c>
+      <c r="K6" s="7">
+        <v>70041</v>
+      </c>
+      <c r="L6" s="7">
+        <v>70042</v>
+      </c>
+      <c r="M6" s="5">
+        <v>9</v>
+      </c>
+      <c r="N6" s="5">
+        <v>0</v>
+      </c>
+      <c r="O6" s="5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A7" s="3">
+        <v>60005</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" s="5">
+        <v>1</v>
+      </c>
+      <c r="F7" s="6">
+        <v>0</v>
+      </c>
+      <c r="G7" s="6">
+        <v>1</v>
+      </c>
+      <c r="H7" s="6">
+        <v>1</v>
+      </c>
+      <c r="I7" s="6">
+        <v>0</v>
+      </c>
+      <c r="J7" s="5">
+        <v>70050</v>
+      </c>
+      <c r="K7" s="7">
+        <v>70051</v>
+      </c>
+      <c r="L7" s="7">
+        <v>70052</v>
+      </c>
+      <c r="M7" s="5">
+        <v>8</v>
+      </c>
+      <c r="N7" s="5">
+        <v>0</v>
+      </c>
+      <c r="O7" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A8" s="3">
+        <v>60006</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" s="5">
+        <v>1</v>
+      </c>
+      <c r="F8" s="6">
+        <v>0</v>
+      </c>
+      <c r="G8" s="6">
+        <v>1</v>
+      </c>
+      <c r="H8" s="6">
+        <v>1</v>
+      </c>
+      <c r="I8" s="6">
+        <v>0</v>
+      </c>
+      <c r="J8" s="5">
+        <v>70060</v>
+      </c>
+      <c r="K8" s="7">
+        <v>70061</v>
+      </c>
+      <c r="L8" s="7">
+        <v>70062</v>
+      </c>
+      <c r="M8" s="5">
+        <v>9</v>
+      </c>
+      <c r="N8" s="5">
+        <v>0</v>
+      </c>
+      <c r="O8" s="5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A9" s="3">
+        <v>60007</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" s="5">
+        <v>1</v>
+      </c>
+      <c r="F9" s="6">
+        <v>0</v>
+      </c>
+      <c r="G9" s="6">
+        <v>1</v>
+      </c>
+      <c r="H9" s="6">
+        <v>1</v>
+      </c>
+      <c r="I9" s="6">
+        <v>0</v>
+      </c>
+      <c r="J9" s="5">
+        <v>70070</v>
+      </c>
+      <c r="K9" s="7">
+        <v>70071</v>
+      </c>
+      <c r="L9" s="7">
+        <v>70072</v>
+      </c>
+      <c r="M9" s="5">
+        <v>8</v>
+      </c>
+      <c r="N9" s="5">
+        <v>0</v>
+      </c>
+      <c r="O9" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
+        <v>60008</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E10" s="5">
+        <v>0</v>
+      </c>
+      <c r="F10" s="6">
+        <v>0</v>
+      </c>
+      <c r="G10" s="6">
+        <v>1</v>
+      </c>
+      <c r="H10" s="6">
+        <v>1</v>
+      </c>
+      <c r="I10" s="6">
+        <v>61000</v>
+      </c>
+      <c r="J10" s="5">
+        <v>70080</v>
+      </c>
+      <c r="K10" s="7">
+        <v>70081</v>
+      </c>
+      <c r="L10" s="7">
+        <v>70082</v>
+      </c>
+      <c r="M10" s="5">
+        <v>6</v>
+      </c>
+      <c r="N10" s="5">
+        <v>0</v>
+      </c>
+      <c r="O10" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
+        <v>60009</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11" s="5">
+        <v>1</v>
+      </c>
+      <c r="F11" s="6">
+        <v>0</v>
+      </c>
+      <c r="G11" s="6">
+        <v>1</v>
+      </c>
+      <c r="H11" s="6">
+        <v>1</v>
+      </c>
+      <c r="I11" s="6">
+        <v>0</v>
+      </c>
+      <c r="J11" s="5">
+        <v>70090</v>
+      </c>
+      <c r="K11" s="7">
+        <v>70091</v>
+      </c>
+      <c r="L11" s="7">
+        <v>70092</v>
+      </c>
+      <c r="M11" s="5">
+        <v>8</v>
+      </c>
+      <c r="N11" s="5">
+        <v>0</v>
+      </c>
+      <c r="O11" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
+        <v>60010</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E12" s="5">
+        <v>1</v>
+      </c>
+      <c r="F12" s="6">
+        <v>0</v>
+      </c>
+      <c r="G12" s="6">
+        <v>1</v>
+      </c>
+      <c r="H12" s="6">
+        <v>1</v>
+      </c>
+      <c r="I12" s="6">
+        <v>0</v>
+      </c>
+      <c r="J12" s="5">
+        <v>70100</v>
+      </c>
+      <c r="K12" s="7">
+        <v>70101</v>
+      </c>
+      <c r="L12" s="7">
+        <v>70102</v>
+      </c>
+      <c r="M12" s="5">
+        <v>9</v>
+      </c>
+      <c r="N12" s="5">
+        <v>0</v>
+      </c>
+      <c r="O12" s="5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
+        <v>60011</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A2" s="4">
-        <v>60000</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="E2" s="6">
-        <v>1</v>
-      </c>
-      <c r="F2" s="7">
-        <v>1</v>
-      </c>
-      <c r="G2" s="7">
-        <v>1</v>
-      </c>
-      <c r="H2" s="7">
-        <v>0</v>
-      </c>
-      <c r="I2" s="7">
-        <v>0</v>
-      </c>
-      <c r="J2" s="6">
-        <v>70000</v>
-      </c>
-      <c r="K2" s="8">
-        <v>70001</v>
-      </c>
-      <c r="L2" s="8">
-        <v>70002</v>
-      </c>
-      <c r="M2" s="6">
-        <v>10</v>
-      </c>
-      <c r="N2" s="6">
-        <v>0</v>
-      </c>
-      <c r="O2" s="6">
-        <v>0</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A3" s="4">
-        <v>60001</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="E3" s="6">
-        <v>0</v>
-      </c>
-      <c r="F3" s="7">
-        <v>1</v>
-      </c>
-      <c r="G3" s="7">
-        <v>1</v>
-      </c>
-      <c r="H3" s="7">
-        <v>0</v>
-      </c>
-      <c r="I3" s="7">
-        <v>0</v>
-      </c>
-      <c r="J3" s="6">
-        <v>70010</v>
-      </c>
-      <c r="K3" s="8">
-        <v>70011</v>
-      </c>
-      <c r="L3" s="8">
-        <v>70012</v>
-      </c>
-      <c r="M3" s="6">
-        <v>10</v>
-      </c>
-      <c r="N3" s="6">
-        <v>0</v>
-      </c>
-      <c r="O3" s="6">
-        <v>0</v>
-      </c>
-      <c r="P3" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q3" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A4" s="4">
-        <v>60002</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="E4" s="6">
-        <v>1</v>
-      </c>
-      <c r="F4" s="7">
-        <v>1</v>
-      </c>
-      <c r="G4" s="7">
-        <v>1</v>
-      </c>
-      <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7">
-        <v>0</v>
-      </c>
-      <c r="J4" s="6">
-        <v>70020</v>
-      </c>
-      <c r="K4" s="8">
-        <v>70021</v>
-      </c>
-      <c r="L4" s="8">
-        <v>70022</v>
-      </c>
-      <c r="M4" s="6">
-        <v>10</v>
-      </c>
-      <c r="N4" s="6">
-        <v>0</v>
-      </c>
-      <c r="O4" s="6">
-        <v>0</v>
-      </c>
-      <c r="P4" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q4" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A5" s="4">
-        <v>60003</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="E5" s="6">
-        <v>1</v>
-      </c>
-      <c r="F5" s="7">
-        <v>1</v>
-      </c>
-      <c r="G5" s="7">
-        <v>1</v>
-      </c>
-      <c r="H5" s="7">
-        <v>1</v>
-      </c>
-      <c r="I5" s="7">
-        <v>0</v>
-      </c>
-      <c r="J5" s="6">
-        <v>70030</v>
-      </c>
-      <c r="K5" s="8">
-        <v>70031</v>
-      </c>
-      <c r="L5" s="8">
-        <v>70032</v>
-      </c>
-      <c r="M5" s="6">
-        <v>10</v>
-      </c>
-      <c r="N5" s="6">
-        <v>0</v>
-      </c>
-      <c r="O5" s="6">
-        <v>0</v>
-      </c>
-      <c r="P5" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q5" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A6" s="4">
-        <v>60004</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="E6" s="6">
-        <v>0</v>
-      </c>
-      <c r="F6" s="7">
-        <v>0</v>
-      </c>
-      <c r="G6" s="7">
-        <v>1</v>
-      </c>
-      <c r="H6" s="7">
-        <v>1</v>
-      </c>
-      <c r="I6" s="7">
-        <v>0</v>
-      </c>
-      <c r="J6" s="6">
-        <v>70040</v>
-      </c>
-      <c r="K6" s="8">
-        <v>70041</v>
-      </c>
-      <c r="L6" s="8">
-        <v>70042</v>
-      </c>
-      <c r="M6" s="6">
-        <v>9</v>
-      </c>
-      <c r="N6" s="6">
-        <v>0</v>
-      </c>
-      <c r="O6" s="6">
-        <v>0</v>
-      </c>
-      <c r="P6" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q6" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A7" s="4">
-        <v>60005</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="E7" s="6">
-        <v>1</v>
-      </c>
-      <c r="F7" s="7">
-        <v>0</v>
-      </c>
-      <c r="G7" s="7">
-        <v>1</v>
-      </c>
-      <c r="H7" s="7">
-        <v>1</v>
-      </c>
-      <c r="I7" s="7">
-        <v>0</v>
-      </c>
-      <c r="J7" s="6">
-        <v>70050</v>
-      </c>
-      <c r="K7" s="8">
-        <v>70051</v>
-      </c>
-      <c r="L7" s="8">
-        <v>70052</v>
-      </c>
-      <c r="M7" s="6">
-        <v>8</v>
-      </c>
-      <c r="N7" s="6">
-        <v>0</v>
-      </c>
-      <c r="O7" s="6">
-        <v>0</v>
-      </c>
-      <c r="P7" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q7" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A8" s="4">
-        <v>60006</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="E8" s="6">
-        <v>1</v>
-      </c>
-      <c r="F8" s="7">
-        <v>0</v>
-      </c>
-      <c r="G8" s="7">
-        <v>1</v>
-      </c>
-      <c r="H8" s="7">
-        <v>1</v>
-      </c>
-      <c r="I8" s="7">
-        <v>0</v>
-      </c>
-      <c r="J8" s="6">
-        <v>70060</v>
-      </c>
-      <c r="K8" s="8">
-        <v>70061</v>
-      </c>
-      <c r="L8" s="8">
-        <v>70062</v>
-      </c>
-      <c r="M8" s="6">
-        <v>9</v>
-      </c>
-      <c r="N8" s="6">
-        <v>0</v>
-      </c>
-      <c r="O8" s="6">
-        <v>0</v>
-      </c>
-      <c r="P8" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q8" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A9" s="4">
-        <v>60007</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="E9" s="6">
-        <v>1</v>
-      </c>
-      <c r="F9" s="7">
-        <v>0</v>
-      </c>
-      <c r="G9" s="7">
-        <v>1</v>
-      </c>
-      <c r="H9" s="7">
-        <v>1</v>
-      </c>
-      <c r="I9" s="7">
-        <v>0</v>
-      </c>
-      <c r="J9" s="6">
-        <v>70070</v>
-      </c>
-      <c r="K9" s="8">
-        <v>70071</v>
-      </c>
-      <c r="L9" s="8">
-        <v>70072</v>
-      </c>
-      <c r="M9" s="6">
-        <v>8</v>
-      </c>
-      <c r="N9" s="6">
-        <v>0</v>
-      </c>
-      <c r="O9" s="6">
-        <v>0</v>
-      </c>
-      <c r="P9" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q9" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A10" s="4">
-        <v>60008</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" s="5" t="s">
+      <c r="D13" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="E10" s="6">
-        <v>0</v>
-      </c>
-      <c r="F10" s="7">
-        <v>0</v>
-      </c>
-      <c r="G10" s="7">
-        <v>1</v>
-      </c>
-      <c r="H10" s="7">
-        <v>1</v>
-      </c>
-      <c r="I10" s="7">
-        <v>61000</v>
-      </c>
-      <c r="J10" s="6">
-        <v>70080</v>
-      </c>
-      <c r="K10" s="8">
-        <v>70081</v>
-      </c>
-      <c r="L10" s="8">
-        <v>70082</v>
-      </c>
-      <c r="M10" s="6">
+      <c r="E13" s="5">
+        <v>1</v>
+      </c>
+      <c r="F13" s="6">
+        <v>0</v>
+      </c>
+      <c r="G13" s="6">
+        <v>1</v>
+      </c>
+      <c r="H13" s="6">
+        <v>1</v>
+      </c>
+      <c r="I13" s="6">
+        <v>0</v>
+      </c>
+      <c r="J13" s="5">
+        <v>70110</v>
+      </c>
+      <c r="K13" s="7">
+        <v>70111</v>
+      </c>
+      <c r="L13" s="7">
+        <v>70112</v>
+      </c>
+      <c r="M13" s="5">
         <v>6</v>
       </c>
-      <c r="N10" s="6">
-        <v>0</v>
-      </c>
-      <c r="O10" s="6">
-        <v>0</v>
-      </c>
-      <c r="P10" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q10" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A11" s="4">
-        <v>60009</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="E11" s="6">
-        <v>1</v>
-      </c>
-      <c r="F11" s="7">
-        <v>0</v>
-      </c>
-      <c r="G11" s="7">
-        <v>1</v>
-      </c>
-      <c r="H11" s="7">
-        <v>1</v>
-      </c>
-      <c r="I11" s="7">
-        <v>0</v>
-      </c>
-      <c r="J11" s="6">
-        <v>70090</v>
-      </c>
-      <c r="K11" s="8">
-        <v>70091</v>
-      </c>
-      <c r="L11" s="8">
-        <v>70092</v>
-      </c>
-      <c r="M11" s="6">
-        <v>8</v>
-      </c>
-      <c r="N11" s="6">
-        <v>0</v>
-      </c>
-      <c r="O11" s="6">
-        <v>0</v>
-      </c>
-      <c r="P11" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q11" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A12" s="4">
-        <v>60010</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="E12" s="6">
-        <v>1</v>
-      </c>
-      <c r="F12" s="7">
-        <v>0</v>
-      </c>
-      <c r="G12" s="7">
-        <v>1</v>
-      </c>
-      <c r="H12" s="7">
-        <v>1</v>
-      </c>
-      <c r="I12" s="7">
-        <v>0</v>
-      </c>
-      <c r="J12" s="6">
-        <v>70100</v>
-      </c>
-      <c r="K12" s="8">
-        <v>70101</v>
-      </c>
-      <c r="L12" s="8">
-        <v>70102</v>
-      </c>
-      <c r="M12" s="6">
-        <v>9</v>
-      </c>
-      <c r="N12" s="6">
-        <v>0</v>
-      </c>
-      <c r="O12" s="6">
-        <v>0</v>
-      </c>
-      <c r="P12" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q12" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A13" s="4">
-        <v>60011</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="E13" s="6">
-        <v>1</v>
-      </c>
-      <c r="F13" s="7">
-        <v>0</v>
-      </c>
-      <c r="G13" s="7">
-        <v>1</v>
-      </c>
-      <c r="H13" s="7">
-        <v>1</v>
-      </c>
-      <c r="I13" s="7">
-        <v>0</v>
-      </c>
-      <c r="J13" s="6">
-        <v>70110</v>
-      </c>
-      <c r="K13" s="8">
-        <v>70111</v>
-      </c>
-      <c r="L13" s="8">
-        <v>70112</v>
-      </c>
-      <c r="M13" s="6">
+      <c r="N13" s="5">
+        <v>0</v>
+      </c>
+      <c r="O13" s="5">
         <v>6</v>
-      </c>
-      <c r="N13" s="6">
-        <v>0</v>
-      </c>
-      <c r="O13" s="6">
-        <v>0</v>
-      </c>
-      <c r="P13" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q13" s="3" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId4"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/ExcelConfig/pbjson/excel/人类信息表.xlsx
+++ b/ExcelConfig/pbjson/excel/人类信息表.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\CatClub\ExcelConfig\pbjson\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDEA71C3-B4DD-4289-9042-84D500E78A53}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{809473FE-A5C6-41B2-8DD9-CE81FA0772F1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3750" yWindow="4155" windowWidth="21465" windowHeight="14685" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10920" yWindow="6750" windowWidth="21105" windowHeight="13920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#人类信息配置" sheetId="1" r:id="rId1"/>
@@ -170,6 +170,51 @@
         </r>
       </text>
     </comment>
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000C000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="等线"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>tags
+string</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000D000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="等线"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>tags
+string</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000E000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="等线"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>tags
+string</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="M1" authorId="0" shapeId="0" xr:uid="{3F363207-5358-4285-8551-14FB5DAB4377}">
       <text>
         <r>
@@ -200,28 +245,19 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0">
+    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000F000000}">
       <text>
-        <t>tags
-string</t>
-      </text>
-    </comment>
-    <comment ref="K1" authorId="0">
-      <text>
-        <t>tags
-string</t>
-      </text>
-    </comment>
-    <comment ref="L1" authorId="0">
-      <text>
-        <t>tags
-string</t>
-      </text>
-    </comment>
-    <comment ref="O1" authorId="0">
-      <text>
-        <t>Defense
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="等线"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Defense
 int32</t>
+        </r>
       </text>
     </comment>
   </commentList>
@@ -229,7 +265,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="75">
   <si>
     <t>人物编号</t>
   </si>
@@ -374,51 +410,146 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Sprites\Portraits\60000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sprites\Portraits\60001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sprites\Portraits\60002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sprites\Portraits\60003</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sprites\Portraits\60004</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sprites\Portraits\60005</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sprites\Portraits\60006</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sprites\Portraits\60007</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sprites\Portraits\60008</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sprites\Portraits\60009</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sprites\Portraits\60010</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Sprites\Portraits\60011</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不安</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多疑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孤独</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高贵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>爱财</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>善变</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>野心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>才干</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>耐性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虔诚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正直</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有心结</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可靠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>警惕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>善辩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自信</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>骗子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>爱钻研</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虚荣</t>
+  </si>
+  <si>
+    <t>忠诚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冷面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>温和</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>诚实</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>爱猫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仁慈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>粗俗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>顾家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>愚笨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多谋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>傲慢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>猫语者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>嗜赌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>讲义气</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -426,7 +557,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -540,7 +670,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -556,10 +686,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -859,23 +985,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O13"/>
+  <dimension ref="A1:O16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="1" width="9.0" collapsed="false"/>
-    <col min="2" max="5" style="1" width="8.0" collapsed="false"/>
-    <col min="6" max="6" customWidth="true" style="1" width="15.0" collapsed="false"/>
-    <col min="7" max="8" customWidth="true" style="1" width="9.0" collapsed="false"/>
-    <col min="9" max="9" customWidth="true" style="1" width="13.0" collapsed="false"/>
-    <col min="10" max="12" style="1" width="8.0" collapsed="false"/>
-    <col min="13" max="13" style="2" width="9.0" collapsed="false"/>
-    <col min="14" max="14" customWidth="true" style="1" width="11.0" collapsed="false"/>
-    <col min="15" max="15" customWidth="true" style="1" width="13.0" collapsed="false"/>
+    <col min="1" max="1" width="9" style="1" customWidth="1"/>
+    <col min="2" max="5" width="8" style="1"/>
+    <col min="6" max="6" width="15" style="1" customWidth="1"/>
+    <col min="7" max="8" width="9" style="1" customWidth="1"/>
+    <col min="9" max="9" width="13" style="1" customWidth="1"/>
+    <col min="10" max="12" width="8" style="1"/>
+    <col min="13" max="13" width="9" style="2"/>
+    <col min="14" max="14" width="11" style="1" customWidth="1"/>
+    <col min="15" max="15" width="13" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.2">
@@ -948,23 +1074,21 @@
         <v>1</v>
       </c>
       <c r="H2" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" s="6">
         <v>0</v>
       </c>
-      <c r="J2" s="5">
-        <v>70000</v>
-      </c>
-      <c r="K2" s="7">
-        <v>70001</v>
-      </c>
-      <c r="L2" s="7">
-        <v>70002</v>
-      </c>
-      <c r="M2" s="5">
-        <v>10</v>
-      </c>
+      <c r="J2" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="M2" s="5"/>
       <c r="N2" s="5">
         <v>0</v>
       </c>
@@ -983,7 +1107,7 @@
         <v>23</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E3" s="5">
         <v>0</v>
@@ -998,25 +1122,23 @@
         <v>0</v>
       </c>
       <c r="I3" s="6">
-        <v>0</v>
-      </c>
-      <c r="J3" s="5">
-        <v>70010</v>
-      </c>
-      <c r="K3" s="7">
-        <v>70011</v>
-      </c>
-      <c r="L3" s="7">
-        <v>70012</v>
-      </c>
-      <c r="M3" s="5">
-        <v>10</v>
-      </c>
+        <v>61002</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="M3" s="5"/>
       <c r="N3" s="5">
         <v>0</v>
       </c>
       <c r="O3" s="5">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
@@ -1030,7 +1152,7 @@
         <v>25</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E4" s="5">
         <v>1</v>
@@ -1047,18 +1169,16 @@
       <c r="I4" s="6">
         <v>0</v>
       </c>
-      <c r="J4" s="5">
-        <v>70020</v>
-      </c>
-      <c r="K4" s="7">
-        <v>70021</v>
-      </c>
-      <c r="L4" s="7">
-        <v>70022</v>
-      </c>
-      <c r="M4" s="5">
-        <v>10</v>
-      </c>
+      <c r="J4" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="M4" s="5"/>
       <c r="N4" s="5">
         <v>0</v>
       </c>
@@ -1077,7 +1197,7 @@
         <v>27</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E5" s="5">
         <v>1</v>
@@ -1094,18 +1214,16 @@
       <c r="I5" s="6">
         <v>0</v>
       </c>
-      <c r="J5" s="5">
-        <v>70030</v>
-      </c>
-      <c r="K5" s="7">
-        <v>70031</v>
-      </c>
-      <c r="L5" s="7">
-        <v>70032</v>
-      </c>
-      <c r="M5" s="5">
-        <v>10</v>
-      </c>
+      <c r="J5" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="M5" s="5"/>
       <c r="N5" s="5">
         <v>0</v>
       </c>
@@ -1124,7 +1242,7 @@
         <v>15</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E6" s="5">
         <v>0</v>
@@ -1141,18 +1259,16 @@
       <c r="I6" s="6">
         <v>0</v>
       </c>
-      <c r="J6" s="5">
-        <v>70040</v>
-      </c>
-      <c r="K6" s="7">
-        <v>70041</v>
-      </c>
-      <c r="L6" s="7">
-        <v>70042</v>
-      </c>
-      <c r="M6" s="5">
-        <v>9</v>
-      </c>
+      <c r="J6" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="M6" s="5"/>
       <c r="N6" s="5">
         <v>0</v>
       </c>
@@ -1171,7 +1287,7 @@
         <v>18</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="E7" s="5">
         <v>1</v>
@@ -1188,18 +1304,16 @@
       <c r="I7" s="6">
         <v>0</v>
       </c>
-      <c r="J7" s="5">
-        <v>70050</v>
-      </c>
-      <c r="K7" s="7">
-        <v>70051</v>
-      </c>
-      <c r="L7" s="7">
-        <v>70052</v>
-      </c>
-      <c r="M7" s="5">
-        <v>8</v>
-      </c>
+      <c r="J7" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="M7" s="5"/>
       <c r="N7" s="5">
         <v>0</v>
       </c>
@@ -1218,7 +1332,7 @@
         <v>17</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="E8" s="5">
         <v>1</v>
@@ -1235,18 +1349,16 @@
       <c r="I8" s="6">
         <v>0</v>
       </c>
-      <c r="J8" s="5">
-        <v>70060</v>
-      </c>
-      <c r="K8" s="7">
-        <v>70061</v>
-      </c>
-      <c r="L8" s="7">
-        <v>70062</v>
-      </c>
-      <c r="M8" s="5">
-        <v>9</v>
-      </c>
+      <c r="J8" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="M8" s="5"/>
       <c r="N8" s="5">
         <v>0</v>
       </c>
@@ -1265,7 +1377,7 @@
         <v>32</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="E9" s="5">
         <v>1</v>
@@ -1282,18 +1394,16 @@
       <c r="I9" s="6">
         <v>0</v>
       </c>
-      <c r="J9" s="5">
-        <v>70070</v>
-      </c>
-      <c r="K9" s="7">
-        <v>70071</v>
-      </c>
-      <c r="L9" s="7">
-        <v>70072</v>
-      </c>
-      <c r="M9" s="5">
-        <v>8</v>
-      </c>
+      <c r="J9" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="M9" s="5"/>
       <c r="N9" s="5">
         <v>0</v>
       </c>
@@ -1312,7 +1422,7 @@
         <v>19</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="E10" s="5">
         <v>0</v>
@@ -1327,20 +1437,18 @@
         <v>1</v>
       </c>
       <c r="I10" s="6">
-        <v>61000</v>
-      </c>
-      <c r="J10" s="5">
-        <v>70080</v>
-      </c>
-      <c r="K10" s="7">
-        <v>70081</v>
-      </c>
-      <c r="L10" s="7">
-        <v>70082</v>
-      </c>
-      <c r="M10" s="5">
-        <v>6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="M10" s="5"/>
       <c r="N10" s="5">
         <v>0</v>
       </c>
@@ -1359,7 +1467,7 @@
         <v>35</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="E11" s="5">
         <v>1</v>
@@ -1376,18 +1484,16 @@
       <c r="I11" s="6">
         <v>0</v>
       </c>
-      <c r="J11" s="5">
-        <v>70090</v>
-      </c>
-      <c r="K11" s="7">
-        <v>70091</v>
-      </c>
-      <c r="L11" s="7">
-        <v>70092</v>
-      </c>
-      <c r="M11" s="5">
-        <v>8</v>
-      </c>
+      <c r="J11" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="M11" s="5"/>
       <c r="N11" s="5">
         <v>0</v>
       </c>
@@ -1406,7 +1512,7 @@
         <v>37</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="E12" s="5">
         <v>1</v>
@@ -1423,18 +1529,16 @@
       <c r="I12" s="6">
         <v>0</v>
       </c>
-      <c r="J12" s="5">
-        <v>70100</v>
-      </c>
-      <c r="K12" s="7">
-        <v>70101</v>
-      </c>
-      <c r="L12" s="7">
-        <v>70102</v>
-      </c>
-      <c r="M12" s="5">
-        <v>9</v>
-      </c>
+      <c r="J12" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="M12" s="5"/>
       <c r="N12" s="5">
         <v>0</v>
       </c>
@@ -1453,7 +1557,7 @@
         <v>16</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="E13" s="5">
         <v>1</v>
@@ -1470,30 +1574,30 @@
       <c r="I13" s="6">
         <v>0</v>
       </c>
-      <c r="J13" s="5">
-        <v>70110</v>
-      </c>
-      <c r="K13" s="7">
-        <v>70111</v>
-      </c>
-      <c r="L13" s="7">
-        <v>70112</v>
-      </c>
-      <c r="M13" s="5">
-        <v>6</v>
-      </c>
+      <c r="J13" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="M13" s="5"/>
       <c r="N13" s="5">
         <v>0</v>
       </c>
       <c r="O13" s="5">
         <v>6</v>
       </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="D16" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-  <drawing r:id="rId4"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/ExcelConfig/pbjson/excel/人类信息表.xlsx
+++ b/ExcelConfig/pbjson/excel/人类信息表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\CatClub\ExcelConfig\pbjson\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{809473FE-A5C6-41B2-8DD9-CE81FA0772F1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80175E25-EBF3-4737-814C-FB8E1F3ADF4D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10920" yWindow="6750" windowWidth="21105" windowHeight="13920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9225" yWindow="5895" windowWidth="21105" windowHeight="13920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#人类信息配置" sheetId="1" r:id="rId1"/>
@@ -265,7 +265,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="86">
   <si>
     <t>人物编号</t>
   </si>
@@ -410,147 +410,180 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>不安</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多疑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孤独</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高贵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>爱财</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>善变</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>野心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>才干</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>耐性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虔诚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正直</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有心结</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可靠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>警惕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>善辩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自信</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>骗子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>爱钻研</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虚荣</t>
+  </si>
+  <si>
+    <t>忠诚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冷面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>温和</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>诚实</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>爱猫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仁慈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>粗俗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>顾家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>愚笨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多谋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>傲慢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>猫语者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>嗜赌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>讲义气</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprites\Portraits\60000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprites\Portraits\60001</t>
+  </si>
+  <si>
+    <t>Sprites\Portraits\60002</t>
+  </si>
+  <si>
+    <t>Sprites\Portraits\60003</t>
+  </si>
+  <si>
+    <t>Sprites\Portraits\60004</t>
+  </si>
+  <si>
+    <t>Sprites\Portraits\60005</t>
+  </si>
+  <si>
+    <t>Sprites\Portraits\60006</t>
+  </si>
+  <si>
+    <t>Sprites\Portraits\60007</t>
+  </si>
+  <si>
+    <t>Sprites\Portraits\60008</t>
+  </si>
+  <si>
+    <t>Sprites\Portraits\60009</t>
+  </si>
+  <si>
+    <t>Sprites\Portraits\60010</t>
+  </si>
+  <si>
     <t>Sprites\Portraits\60011</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不安</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>多疑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>孤独</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高贵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>爱财</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>善变</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>野心</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>才干</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>耐性</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>虔诚</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>正直</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>有心结</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>可靠</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>警惕</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>善辩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>自信</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>骗子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>爱钻研</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>虚荣</t>
-  </si>
-  <si>
-    <t>忠诚</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>冷面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>温和</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>诚实</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>爱猫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>仁慈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>学识</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>粗俗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>顾家</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>愚笨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>多谋</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>傲慢</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>猫语者</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>嗜赌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>讲义气</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -988,7 +1021,7 @@
   <dimension ref="A1:O16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1062,31 +1095,31 @@
         <v>21</v>
       </c>
       <c r="D2" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="E2" s="5">
+        <v>1</v>
+      </c>
+      <c r="F2" s="6">
+        <v>1</v>
+      </c>
+      <c r="G2" s="6">
+        <v>1</v>
+      </c>
+      <c r="H2" s="6">
+        <v>1</v>
+      </c>
+      <c r="I2" s="6">
+        <v>0</v>
+      </c>
+      <c r="J2" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="E2" s="5">
-        <v>1</v>
-      </c>
-      <c r="F2" s="6">
-        <v>1</v>
-      </c>
-      <c r="G2" s="6">
-        <v>1</v>
-      </c>
-      <c r="H2" s="6">
-        <v>1</v>
-      </c>
-      <c r="I2" s="6">
-        <v>0</v>
-      </c>
-      <c r="J2" s="5" t="s">
+      <c r="K2" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="L2" s="7" t="s">
         <v>41</v>
-      </c>
-      <c r="L2" s="7" t="s">
-        <v>42</v>
       </c>
       <c r="M2" s="5"/>
       <c r="N2" s="5">
@@ -1107,7 +1140,7 @@
         <v>23</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>39</v>
+        <v>75</v>
       </c>
       <c r="E3" s="5">
         <v>0</v>
@@ -1125,13 +1158,13 @@
         <v>61002</v>
       </c>
       <c r="J3" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="K3" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="K3" s="7" t="s">
+      <c r="L3" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="L3" s="7" t="s">
-        <v>45</v>
       </c>
       <c r="M3" s="5"/>
       <c r="N3" s="5">
@@ -1152,7 +1185,7 @@
         <v>25</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="E4" s="5">
         <v>1</v>
@@ -1170,13 +1203,13 @@
         <v>0</v>
       </c>
       <c r="J4" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>48</v>
       </c>
       <c r="M4" s="5"/>
       <c r="N4" s="5">
@@ -1197,7 +1230,7 @@
         <v>27</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="E5" s="5">
         <v>1</v>
@@ -1215,13 +1248,13 @@
         <v>0</v>
       </c>
       <c r="J5" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>50</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>51</v>
       </c>
       <c r="M5" s="5"/>
       <c r="N5" s="5">
@@ -1242,7 +1275,7 @@
         <v>15</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>39</v>
+        <v>78</v>
       </c>
       <c r="E6" s="5">
         <v>0</v>
@@ -1260,13 +1293,13 @@
         <v>0</v>
       </c>
       <c r="J6" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>53</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>54</v>
       </c>
       <c r="M6" s="5"/>
       <c r="N6" s="5">
@@ -1287,7 +1320,7 @@
         <v>18</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="E7" s="5">
         <v>1</v>
@@ -1305,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="J7" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>56</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>57</v>
       </c>
       <c r="M7" s="5"/>
       <c r="N7" s="5">
@@ -1332,7 +1365,7 @@
         <v>17</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="E8" s="5">
         <v>1</v>
@@ -1350,13 +1383,13 @@
         <v>0</v>
       </c>
       <c r="J8" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>60</v>
       </c>
       <c r="M8" s="5"/>
       <c r="N8" s="5">
@@ -1377,7 +1410,7 @@
         <v>32</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="E9" s="5">
         <v>1</v>
@@ -1395,13 +1428,13 @@
         <v>0</v>
       </c>
       <c r="J9" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>63</v>
       </c>
       <c r="M9" s="5"/>
       <c r="N9" s="5">
@@ -1422,7 +1455,7 @@
         <v>19</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>39</v>
+        <v>82</v>
       </c>
       <c r="E10" s="5">
         <v>0</v>
@@ -1440,13 +1473,13 @@
         <v>0</v>
       </c>
       <c r="J10" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>66</v>
       </c>
       <c r="M10" s="5"/>
       <c r="N10" s="5">
@@ -1467,7 +1500,7 @@
         <v>35</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>39</v>
+        <v>83</v>
       </c>
       <c r="E11" s="5">
         <v>1</v>
@@ -1485,13 +1518,13 @@
         <v>0</v>
       </c>
       <c r="J11" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>69</v>
       </c>
       <c r="M11" s="5"/>
       <c r="N11" s="5">
@@ -1512,7 +1545,7 @@
         <v>37</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>39</v>
+        <v>84</v>
       </c>
       <c r="E12" s="5">
         <v>1</v>
@@ -1530,13 +1563,13 @@
         <v>0</v>
       </c>
       <c r="J12" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="K12" s="7" t="s">
-        <v>71</v>
-      </c>
       <c r="L12" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M12" s="5"/>
       <c r="N12" s="5">
@@ -1557,7 +1590,7 @@
         <v>16</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>39</v>
+        <v>85</v>
       </c>
       <c r="E13" s="5">
         <v>1</v>
@@ -1575,13 +1608,13 @@
         <v>0</v>
       </c>
       <c r="J13" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>74</v>
       </c>
       <c r="M13" s="5"/>
       <c r="N13" s="5">

--- a/ExcelConfig/pbjson/excel/人类信息表.xlsx
+++ b/ExcelConfig/pbjson/excel/人类信息表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\CatClub\ExcelConfig\pbjson\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80175E25-EBF3-4737-814C-FB8E1F3ADF4D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7FF09EE-7C34-43D3-A7FD-3B5AE570EDF6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9225" yWindow="5895" windowWidth="21105" windowHeight="13920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8415" yWindow="4635" windowWidth="21105" windowHeight="13920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#人类信息配置" sheetId="1" r:id="rId1"/>
@@ -200,37 +200,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000E000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="等线"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>tags
-string</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{3F363207-5358-4285-8551-14FB5DAB4377}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="等线"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>tags
-int64</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000D000000}">
+    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000D000000}">
       <text>
         <r>
           <rPr>
@@ -245,7 +215,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000F000000}">
+    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000F000000}">
       <text>
         <r>
           <rPr>
@@ -265,7 +235,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="72">
   <si>
     <t>人物编号</t>
   </si>
@@ -300,9 +270,6 @@
     <t>标签@1</t>
   </si>
   <si>
-    <t>标签@2</t>
-  </si>
-  <si>
     <t>初始能见度</t>
   </si>
   <si>
@@ -310,10 +277,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>标签@3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>女仆</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -410,10 +373,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>不安</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>多疑</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -422,10 +381,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>高贵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>爱财</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -442,10 +397,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>耐性</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>虔诚</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -454,10 +405,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>有心结</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>可靠</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -466,124 +413,93 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>善辩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>自信</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>骗子</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>爱钻研</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>忠诚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冷面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>温和</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>爱猫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仁慈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>粗俗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>顾家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>傲慢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>猫语者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>讲义气</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprites\Portraits\60000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprites\Portraits\60001</t>
+  </si>
+  <si>
+    <t>Sprites\Portraits\60002</t>
+  </si>
+  <si>
+    <t>Sprites\Portraits\60003</t>
+  </si>
+  <si>
+    <t>Sprites\Portraits\60004</t>
+  </si>
+  <si>
+    <t>Sprites\Portraits\60005</t>
+  </si>
+  <si>
+    <t>Sprites\Portraits\60006</t>
+  </si>
+  <si>
+    <t>Sprites\Portraits\60007</t>
+  </si>
+  <si>
+    <t>Sprites\Portraits\60008</t>
+  </si>
+  <si>
+    <t>Sprites\Portraits\60009</t>
+  </si>
+  <si>
+    <t>Sprites\Portraits\60010</t>
+  </si>
+  <si>
+    <t>Sprites\Portraits\60011</t>
   </si>
   <si>
     <t>虚荣</t>
-  </si>
-  <si>
-    <t>忠诚</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>冷面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>温和</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>诚实</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>爱猫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>仁慈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>学识</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>粗俗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>顾家</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>愚笨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>多谋</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>傲慢</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>猫语者</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>嗜赌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>讲义气</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sprites\Portraits\60000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sprites\Portraits\60001</t>
-  </si>
-  <si>
-    <t>Sprites\Portraits\60002</t>
-  </si>
-  <si>
-    <t>Sprites\Portraits\60003</t>
-  </si>
-  <si>
-    <t>Sprites\Portraits\60004</t>
-  </si>
-  <si>
-    <t>Sprites\Portraits\60005</t>
-  </si>
-  <si>
-    <t>Sprites\Portraits\60006</t>
-  </si>
-  <si>
-    <t>Sprites\Portraits\60007</t>
-  </si>
-  <si>
-    <t>Sprites\Portraits\60008</t>
-  </si>
-  <si>
-    <t>Sprites\Portraits\60009</t>
-  </si>
-  <si>
-    <t>Sprites\Portraits\60010</t>
-  </si>
-  <si>
-    <t>Sprites\Portraits\60011</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学究</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -679,11 +595,10 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
@@ -1018,10 +933,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O16"/>
+  <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+      <selection activeCell="L15" sqref="L15:M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1031,13 +946,12 @@
     <col min="6" max="6" width="15" style="1" customWidth="1"/>
     <col min="7" max="8" width="9" style="1" customWidth="1"/>
     <col min="9" max="9" width="13" style="1" customWidth="1"/>
-    <col min="10" max="12" width="8" style="1"/>
-    <col min="13" max="13" width="9" style="2"/>
-    <col min="14" max="14" width="11" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13" style="1" customWidth="1"/>
+    <col min="10" max="11" width="8" style="1"/>
+    <col min="12" max="12" width="11" style="1" customWidth="1"/>
+    <col min="13" max="13" width="13" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1075,557 +989,503 @@
         <v>11</v>
       </c>
       <c r="M1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" s="2">
+        <v>60000</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E2" s="4">
+        <v>1</v>
+      </c>
+      <c r="F2" s="5">
+        <v>1</v>
+      </c>
+      <c r="G2" s="5">
+        <v>1</v>
+      </c>
+      <c r="H2" s="5">
+        <v>1</v>
+      </c>
+      <c r="I2" s="5">
+        <v>0</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="L2" s="4">
+        <v>2</v>
+      </c>
+      <c r="M2" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
+        <v>60001</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E3" s="4">
+        <v>0</v>
+      </c>
+      <c r="F3" s="5">
+        <v>1</v>
+      </c>
+      <c r="G3" s="5">
+        <v>1</v>
+      </c>
+      <c r="H3" s="5">
+        <v>0</v>
+      </c>
+      <c r="I3" s="5">
+        <v>61002</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="L3" s="4">
+        <v>0</v>
+      </c>
+      <c r="M3" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
+        <v>60002</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E4" s="4">
+        <v>1</v>
+      </c>
+      <c r="F4" s="5">
+        <v>1</v>
+      </c>
+      <c r="G4" s="5">
+        <v>1</v>
+      </c>
+      <c r="H4" s="5">
+        <v>0</v>
+      </c>
+      <c r="I4" s="5">
+        <v>0</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="L4" s="4">
+        <v>0</v>
+      </c>
+      <c r="M4" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
+        <v>60003</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E5" s="4">
+        <v>1</v>
+      </c>
+      <c r="F5" s="5">
+        <v>1</v>
+      </c>
+      <c r="G5" s="5">
+        <v>1</v>
+      </c>
+      <c r="H5" s="5">
+        <v>1</v>
+      </c>
+      <c r="I5" s="5">
+        <v>0</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="L5" s="4">
+        <v>0</v>
+      </c>
+      <c r="M5" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
+        <v>60004</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E6" s="4">
+        <v>0</v>
+      </c>
+      <c r="F6" s="5">
+        <v>0</v>
+      </c>
+      <c r="G6" s="5">
+        <v>1</v>
+      </c>
+      <c r="H6" s="5">
+        <v>1</v>
+      </c>
+      <c r="I6" s="5">
+        <v>0</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="K6" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="L6" s="4">
+        <v>0</v>
+      </c>
+      <c r="M6" s="4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
+        <v>60005</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E7" s="4">
+        <v>1</v>
+      </c>
+      <c r="F7" s="5">
+        <v>0</v>
+      </c>
+      <c r="G7" s="5">
+        <v>1</v>
+      </c>
+      <c r="H7" s="5">
+        <v>1</v>
+      </c>
+      <c r="I7" s="5">
+        <v>0</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="L7" s="4">
+        <v>0</v>
+      </c>
+      <c r="M7" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
+        <v>60006</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E8" s="4">
+        <v>1</v>
+      </c>
+      <c r="F8" s="5">
+        <v>0</v>
+      </c>
+      <c r="G8" s="5">
+        <v>1</v>
+      </c>
+      <c r="H8" s="5">
+        <v>1</v>
+      </c>
+      <c r="I8" s="5">
+        <v>0</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="L8" s="4">
+        <v>0</v>
+      </c>
+      <c r="M8" s="4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9" s="2">
+        <v>60007</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E9" s="4">
+        <v>1</v>
+      </c>
+      <c r="F9" s="5">
+        <v>0</v>
+      </c>
+      <c r="G9" s="5">
+        <v>1</v>
+      </c>
+      <c r="H9" s="5">
+        <v>1</v>
+      </c>
+      <c r="I9" s="5">
+        <v>0</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="K9" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="L9" s="4">
+        <v>0</v>
+      </c>
+      <c r="M9" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10" s="2">
+        <v>60008</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E10" s="4">
+        <v>0</v>
+      </c>
+      <c r="F10" s="5">
+        <v>0</v>
+      </c>
+      <c r="G10" s="5">
+        <v>1</v>
+      </c>
+      <c r="H10" s="5">
+        <v>1</v>
+      </c>
+      <c r="I10" s="5">
+        <v>0</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="K10" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="L10" s="4">
+        <v>0</v>
+      </c>
+      <c r="M10" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A11" s="2">
+        <v>60009</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E11" s="4">
+        <v>1</v>
+      </c>
+      <c r="F11" s="5">
+        <v>0</v>
+      </c>
+      <c r="G11" s="5">
+        <v>1</v>
+      </c>
+      <c r="H11" s="5">
+        <v>1</v>
+      </c>
+      <c r="I11" s="5">
+        <v>0</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="K11" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="L11" s="4">
+        <v>0</v>
+      </c>
+      <c r="M11" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A12" s="2">
+        <v>60010</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E12" s="4">
+        <v>1</v>
+      </c>
+      <c r="F12" s="5">
+        <v>0</v>
+      </c>
+      <c r="G12" s="5">
+        <v>1</v>
+      </c>
+      <c r="H12" s="5">
+        <v>1</v>
+      </c>
+      <c r="I12" s="5">
+        <v>0</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="K12" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="L12" s="4">
+        <v>0</v>
+      </c>
+      <c r="M12" s="4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A13" s="2">
+        <v>60011</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="N1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" t="s">
-        <v>13</v>
+      <c r="D13" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E13" s="4">
+        <v>1</v>
+      </c>
+      <c r="F13" s="5">
+        <v>0</v>
+      </c>
+      <c r="G13" s="5">
+        <v>1</v>
+      </c>
+      <c r="H13" s="5">
+        <v>1</v>
+      </c>
+      <c r="I13" s="5">
+        <v>0</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="K13" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="L13" s="4">
+        <v>0</v>
+      </c>
+      <c r="M13" s="4">
+        <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A2" s="3">
-        <v>60000</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="E2" s="5">
-        <v>1</v>
-      </c>
-      <c r="F2" s="6">
-        <v>1</v>
-      </c>
-      <c r="G2" s="6">
-        <v>1</v>
-      </c>
-      <c r="H2" s="6">
-        <v>1</v>
-      </c>
-      <c r="I2" s="6">
-        <v>0</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="K2" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="L2" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5">
-        <v>0</v>
-      </c>
-      <c r="O2" s="5">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A3" s="3">
-        <v>60001</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="E3" s="5">
-        <v>0</v>
-      </c>
-      <c r="F3" s="6">
-        <v>1</v>
-      </c>
-      <c r="G3" s="6">
-        <v>1</v>
-      </c>
-      <c r="H3" s="6">
-        <v>0</v>
-      </c>
-      <c r="I3" s="6">
-        <v>61002</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="K3" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="L3" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5">
-        <v>0</v>
-      </c>
-      <c r="O3" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A4" s="3">
-        <v>60002</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="E4" s="5">
-        <v>1</v>
-      </c>
-      <c r="F4" s="6">
-        <v>1</v>
-      </c>
-      <c r="G4" s="6">
-        <v>1</v>
-      </c>
-      <c r="H4" s="6">
-        <v>0</v>
-      </c>
-      <c r="I4" s="6">
-        <v>0</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5">
-        <v>0</v>
-      </c>
-      <c r="O4" s="5">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A5" s="3">
-        <v>60003</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="E5" s="5">
-        <v>1</v>
-      </c>
-      <c r="F5" s="6">
-        <v>1</v>
-      </c>
-      <c r="G5" s="6">
-        <v>1</v>
-      </c>
-      <c r="H5" s="6">
-        <v>1</v>
-      </c>
-      <c r="I5" s="6">
-        <v>0</v>
-      </c>
-      <c r="J5" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5">
-        <v>0</v>
-      </c>
-      <c r="O5" s="5">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A6" s="3">
-        <v>60004</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="E6" s="5">
-        <v>0</v>
-      </c>
-      <c r="F6" s="6">
-        <v>0</v>
-      </c>
-      <c r="G6" s="6">
-        <v>1</v>
-      </c>
-      <c r="H6" s="6">
-        <v>1</v>
-      </c>
-      <c r="I6" s="6">
-        <v>0</v>
-      </c>
-      <c r="J6" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5">
-        <v>0</v>
-      </c>
-      <c r="O6" s="5">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A7" s="3">
-        <v>60005</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="E7" s="5">
-        <v>1</v>
-      </c>
-      <c r="F7" s="6">
-        <v>0</v>
-      </c>
-      <c r="G7" s="6">
-        <v>1</v>
-      </c>
-      <c r="H7" s="6">
-        <v>1</v>
-      </c>
-      <c r="I7" s="6">
-        <v>0</v>
-      </c>
-      <c r="J7" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5">
-        <v>0</v>
-      </c>
-      <c r="O7" s="5">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A8" s="3">
-        <v>60006</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="E8" s="5">
-        <v>1</v>
-      </c>
-      <c r="F8" s="6">
-        <v>0</v>
-      </c>
-      <c r="G8" s="6">
-        <v>1</v>
-      </c>
-      <c r="H8" s="6">
-        <v>1</v>
-      </c>
-      <c r="I8" s="6">
-        <v>0</v>
-      </c>
-      <c r="J8" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5">
-        <v>0</v>
-      </c>
-      <c r="O8" s="5">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A9" s="3">
-        <v>60007</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="E9" s="5">
-        <v>1</v>
-      </c>
-      <c r="F9" s="6">
-        <v>0</v>
-      </c>
-      <c r="G9" s="6">
-        <v>1</v>
-      </c>
-      <c r="H9" s="6">
-        <v>1</v>
-      </c>
-      <c r="I9" s="6">
-        <v>0</v>
-      </c>
-      <c r="J9" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5">
-        <v>0</v>
-      </c>
-      <c r="O9" s="5">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A10" s="3">
-        <v>60008</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="E10" s="5">
-        <v>0</v>
-      </c>
-      <c r="F10" s="6">
-        <v>0</v>
-      </c>
-      <c r="G10" s="6">
-        <v>1</v>
-      </c>
-      <c r="H10" s="6">
-        <v>1</v>
-      </c>
-      <c r="I10" s="6">
-        <v>0</v>
-      </c>
-      <c r="J10" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="M10" s="5"/>
-      <c r="N10" s="5">
-        <v>0</v>
-      </c>
-      <c r="O10" s="5">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A11" s="3">
-        <v>60009</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="E11" s="5">
-        <v>1</v>
-      </c>
-      <c r="F11" s="6">
-        <v>0</v>
-      </c>
-      <c r="G11" s="6">
-        <v>1</v>
-      </c>
-      <c r="H11" s="6">
-        <v>1</v>
-      </c>
-      <c r="I11" s="6">
-        <v>0</v>
-      </c>
-      <c r="J11" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="M11" s="5"/>
-      <c r="N11" s="5">
-        <v>0</v>
-      </c>
-      <c r="O11" s="5">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A12" s="3">
-        <v>60010</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="E12" s="5">
-        <v>1</v>
-      </c>
-      <c r="F12" s="6">
-        <v>0</v>
-      </c>
-      <c r="G12" s="6">
-        <v>1</v>
-      </c>
-      <c r="H12" s="6">
-        <v>1</v>
-      </c>
-      <c r="I12" s="6">
-        <v>0</v>
-      </c>
-      <c r="J12" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="M12" s="5"/>
-      <c r="N12" s="5">
-        <v>0</v>
-      </c>
-      <c r="O12" s="5">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A13" s="3">
-        <v>60011</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="E13" s="5">
-        <v>1</v>
-      </c>
-      <c r="F13" s="6">
-        <v>0</v>
-      </c>
-      <c r="G13" s="6">
-        <v>1</v>
-      </c>
-      <c r="H13" s="6">
-        <v>1</v>
-      </c>
-      <c r="I13" s="6">
-        <v>0</v>
-      </c>
-      <c r="J13" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="M13" s="5"/>
-      <c r="N13" s="5">
-        <v>0</v>
-      </c>
-      <c r="O13" s="5">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="D16" s="9"/>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="D16" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/ExcelConfig/pbjson/excel/人类信息表.xlsx
+++ b/ExcelConfig/pbjson/excel/人类信息表.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\CatClub\ExcelConfig\pbjson\excel\"/>
     </mc:Choice>
@@ -230,12 +230,18 @@
         </r>
       </text>
     </comment>
+    <comment ref="N1" authorId="0">
+      <text>
+        <t>tags
+string</t>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="73">
   <si>
     <t>人物编号</t>
   </si>
@@ -500,12 +506,16 @@
   <si>
     <t>学究</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标签@2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -595,7 +605,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -619,6 +629,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -634,6 +645,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -933,7 +948,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M16"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="L15" sqref="L15:M15"/>
@@ -941,14 +956,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9" style="1" customWidth="1"/>
-    <col min="2" max="5" width="8" style="1"/>
-    <col min="6" max="6" width="15" style="1" customWidth="1"/>
-    <col min="7" max="8" width="9" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13" style="1" customWidth="1"/>
-    <col min="10" max="11" width="8" style="1"/>
-    <col min="12" max="12" width="11" style="1" customWidth="1"/>
-    <col min="13" max="13" width="13" style="1" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="9.0" collapsed="false"/>
+    <col min="2" max="5" style="1" width="8.0" collapsed="false"/>
+    <col min="6" max="6" customWidth="true" style="1" width="15.0" collapsed="false"/>
+    <col min="7" max="8" customWidth="true" style="1" width="9.0" collapsed="false"/>
+    <col min="9" max="9" customWidth="true" style="1" width="13.0" collapsed="false"/>
+    <col min="10" max="11" style="1" width="8.0" collapsed="false"/>
+    <col min="12" max="12" customWidth="true" style="1" width="11.0" collapsed="false"/>
+    <col min="13" max="13" customWidth="true" style="1" width="13.0" collapsed="false"/>
+    <col min="14" max="14" style="9" width="8.0" customWidth="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
@@ -990,6 +1006,9 @@
       </c>
       <c r="M1" t="s">
         <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
@@ -1491,6 +1510,7 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId4"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/ExcelConfig/pbjson/excel/人类信息表.xlsx
+++ b/ExcelConfig/pbjson/excel/人类信息表.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\CatClub\ExcelConfig\pbjson\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7FF09EE-7C34-43D3-A7FD-3B5AE570EDF6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81ACB2B7-6414-4E33-BC7E-877F993CEB05}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8415" yWindow="4635" windowWidth="21105" windowHeight="13920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5610" yWindow="3660" windowWidth="21105" windowHeight="14115" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#人类信息配置" sheetId="1" r:id="rId1"/>
@@ -230,10 +230,19 @@
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0">
+    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000E000000}">
       <text>
-        <t>tags
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="等线"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>tags
 string</t>
+        </r>
       </text>
     </comment>
   </commentList>
@@ -241,7 +250,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="61">
   <si>
     <t>人物编号</t>
   </si>
@@ -461,43 +470,6 @@
   <si>
     <t>讲义气</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sprites\Portraits\60000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sprites\Portraits\60001</t>
-  </si>
-  <si>
-    <t>Sprites\Portraits\60002</t>
-  </si>
-  <si>
-    <t>Sprites\Portraits\60003</t>
-  </si>
-  <si>
-    <t>Sprites\Portraits\60004</t>
-  </si>
-  <si>
-    <t>Sprites\Portraits\60005</t>
-  </si>
-  <si>
-    <t>Sprites\Portraits\60006</t>
-  </si>
-  <si>
-    <t>Sprites\Portraits\60007</t>
-  </si>
-  <si>
-    <t>Sprites\Portraits\60008</t>
-  </si>
-  <si>
-    <t>Sprites\Portraits\60009</t>
-  </si>
-  <si>
-    <t>Sprites\Portraits\60010</t>
-  </si>
-  <si>
-    <t>Sprites\Portraits\60011</t>
   </si>
   <si>
     <t>虚荣</t>
@@ -515,7 +487,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -629,7 +600,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -645,10 +616,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -951,23 +918,23 @@
   <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15:M15"/>
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="1" width="9.0" collapsed="false"/>
-    <col min="2" max="5" style="1" width="8.0" collapsed="false"/>
-    <col min="6" max="6" customWidth="true" style="1" width="15.0" collapsed="false"/>
-    <col min="7" max="8" customWidth="true" style="1" width="9.0" collapsed="false"/>
-    <col min="9" max="9" customWidth="true" style="1" width="13.0" collapsed="false"/>
-    <col min="10" max="11" style="1" width="8.0" collapsed="false"/>
-    <col min="12" max="12" customWidth="true" style="1" width="11.0" collapsed="false"/>
-    <col min="13" max="13" customWidth="true" style="1" width="13.0" collapsed="false"/>
-    <col min="14" max="14" style="9" width="8.0" customWidth="false"/>
+    <col min="1" max="1" width="9" style="1" customWidth="1"/>
+    <col min="2" max="5" width="8" style="1"/>
+    <col min="6" max="6" width="15" style="1" customWidth="1"/>
+    <col min="7" max="8" width="9" style="1" customWidth="1"/>
+    <col min="9" max="9" width="13" style="1" customWidth="1"/>
+    <col min="10" max="11" width="8" style="1"/>
+    <col min="12" max="12" width="11" style="1" customWidth="1"/>
+    <col min="13" max="13" width="13" style="1" customWidth="1"/>
+    <col min="14" max="14" width="8" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1008,10 +975,10 @@
         <v>12</v>
       </c>
       <c r="N1" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>60000</v>
       </c>
@@ -1021,8 +988,8 @@
       <c r="C2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>58</v>
+      <c r="D2" s="3">
+        <v>60000</v>
       </c>
       <c r="E2" s="4">
         <v>1</v>
@@ -1052,7 +1019,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>60001</v>
       </c>
@@ -1062,8 +1029,8 @@
       <c r="C3" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>59</v>
+      <c r="D3" s="3">
+        <v>60001</v>
       </c>
       <c r="E3" s="4">
         <v>0</v>
@@ -1093,7 +1060,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>60002</v>
       </c>
@@ -1103,8 +1070,8 @@
       <c r="C4" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>60</v>
+      <c r="D4" s="3">
+        <v>60002</v>
       </c>
       <c r="E4" s="4">
         <v>1</v>
@@ -1134,7 +1101,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>60003</v>
       </c>
@@ -1144,8 +1111,8 @@
       <c r="C5" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>61</v>
+      <c r="D5" s="3">
+        <v>60003</v>
       </c>
       <c r="E5" s="4">
         <v>1</v>
@@ -1175,7 +1142,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>60004</v>
       </c>
@@ -1185,8 +1152,8 @@
       <c r="C6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>62</v>
+      <c r="D6" s="3">
+        <v>60004</v>
       </c>
       <c r="E6" s="4">
         <v>0</v>
@@ -1216,7 +1183,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>60005</v>
       </c>
@@ -1226,8 +1193,8 @@
       <c r="C7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>63</v>
+      <c r="D7" s="3">
+        <v>60005</v>
       </c>
       <c r="E7" s="4">
         <v>1</v>
@@ -1248,7 +1215,7 @@
         <v>47</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="L7" s="4">
         <v>0</v>
@@ -1257,7 +1224,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>60006</v>
       </c>
@@ -1267,8 +1234,8 @@
       <c r="C8" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>64</v>
+      <c r="D8" s="3">
+        <v>60006</v>
       </c>
       <c r="E8" s="4">
         <v>1</v>
@@ -1286,7 +1253,7 @@
         <v>0</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="K8" s="6" t="s">
         <v>48</v>
@@ -1298,7 +1265,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>60007</v>
       </c>
@@ -1308,8 +1275,8 @@
       <c r="C9" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>65</v>
+      <c r="D9" s="3">
+        <v>60007</v>
       </c>
       <c r="E9" s="4">
         <v>1</v>
@@ -1339,7 +1306,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>60008</v>
       </c>
@@ -1349,8 +1316,8 @@
       <c r="C10" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>66</v>
+      <c r="D10" s="3">
+        <v>60008</v>
       </c>
       <c r="E10" s="4">
         <v>0</v>
@@ -1380,7 +1347,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>60009</v>
       </c>
@@ -1390,8 +1357,8 @@
       <c r="C11" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="3" t="s">
-        <v>67</v>
+      <c r="D11" s="3">
+        <v>60009</v>
       </c>
       <c r="E11" s="4">
         <v>1</v>
@@ -1421,7 +1388,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>60010</v>
       </c>
@@ -1431,8 +1398,8 @@
       <c r="C12" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>68</v>
+      <c r="D12" s="3">
+        <v>60010</v>
       </c>
       <c r="E12" s="4">
         <v>1</v>
@@ -1462,7 +1429,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>60011</v>
       </c>
@@ -1472,8 +1439,8 @@
       <c r="C13" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="3" t="s">
-        <v>69</v>
+      <c r="D13" s="3">
+        <v>60011</v>
       </c>
       <c r="E13" s="4">
         <v>1</v>
@@ -1503,14 +1470,13 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-  <drawing r:id="rId4"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/ExcelConfig/pbjson/excel/人类信息表.xlsx
+++ b/ExcelConfig/pbjson/excel/人类信息表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\CatClub\ExcelConfig\pbjson\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81ACB2B7-6414-4E33-BC7E-877F993CEB05}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E232F13-B0E5-403C-8567-466A99A7E98C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5610" yWindow="3660" windowWidth="21105" windowHeight="14115" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7545" yWindow="6345" windowWidth="21105" windowHeight="14115" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#人类信息配置" sheetId="1" r:id="rId1"/>
@@ -918,7 +918,7 @@
   <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="O20" sqref="O20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1057,7 +1057,7 @@
         <v>0</v>
       </c>
       <c r="M3" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
